--- a/Excel_Results/Results.xlsx
+++ b/Excel_Results/Results.xlsx
@@ -443,17 +443,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>VV</t>
+          <t>Volume Vertido</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>VT</t>
+          <t>Volume Turbinado</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>VAZ_AFL</t>
+          <t>Volume Turbinado</t>
         </is>
       </c>
     </row>
@@ -465,10 +465,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>19883.92159</v>
+        <v>8506.630394261007</v>
       </c>
       <c r="D2" t="n">
-        <v>19883.92158854167</v>
+        <v>8506.630394261007</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>20203.76169</v>
+        <v>8307.424791273585</v>
       </c>
       <c r="D3" t="n">
-        <v>20203.76168509616</v>
+        <v>8307.424791273585</v>
       </c>
     </row>
     <row r="4">
@@ -493,10 +493,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>20461.28381</v>
+        <v>8100.773350628932</v>
       </c>
       <c r="D4" t="n">
-        <v>20461.28381209936</v>
+        <v>8100.773350628932</v>
       </c>
     </row>
     <row r="5">
@@ -507,10 +507,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>20601.9450176</v>
+        <v>7931.339562893084</v>
       </c>
       <c r="D5" t="n">
-        <v>20601.94501763963</v>
+        <v>7931.339562893084</v>
       </c>
     </row>
     <row r="6">
@@ -521,10 +521,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>20905.85704</v>
+        <v>7766.273043238992</v>
       </c>
       <c r="D6" t="n">
-        <v>20905.85703839869</v>
+        <v>7766.273043238992</v>
       </c>
     </row>
     <row r="7">
@@ -535,10 +535,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>21260.50207</v>
+        <v>7685.37751611635</v>
       </c>
       <c r="D7" t="n">
-        <v>21260.50207107843</v>
+        <v>7685.37751611635</v>
       </c>
     </row>
     <row r="8">
@@ -549,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>21688.48544</v>
+        <v>7587.064899764151</v>
       </c>
       <c r="D8" t="n">
-        <v>21688.48543714387</v>
+        <v>7587.064899764151</v>
       </c>
     </row>
     <row r="9">
@@ -560,13 +560,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>74.05814700000001</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>21914</v>
+        <v>7441.906280660377</v>
       </c>
       <c r="D9" t="n">
-        <v>21988.05814703526</v>
+        <v>7441.906280660377</v>
       </c>
     </row>
     <row r="10">
@@ -574,13 +574,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1221.5535</v>
+        <v>592.90241</v>
       </c>
       <c r="C10" t="n">
-        <v>21050</v>
+        <v>7337.902413522012</v>
       </c>
       <c r="D10" t="n">
-        <v>22271.5534795673</v>
+        <v>7337.902413522012</v>
       </c>
     </row>
     <row r="11">
@@ -588,13 +588,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>163.63212</v>
       </c>
       <c r="C11" t="n">
-        <v>22545.33</v>
+        <v>7243.632119103774</v>
       </c>
       <c r="D11" t="n">
-        <v>22545.32999599358</v>
+        <v>7243.632119103774</v>
       </c>
     </row>
     <row r="12">
@@ -602,13 +602,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>503.99403</v>
       </c>
       <c r="C12" t="n">
-        <v>22761.02945</v>
+        <v>7229.994032232705</v>
       </c>
       <c r="D12" t="n">
-        <v>22761.029453125</v>
+        <v>7229.994032232705</v>
       </c>
     </row>
     <row r="13">
@@ -616,13 +616,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>374.54385</v>
       </c>
       <c r="C13" t="n">
-        <v>22967.50021</v>
+        <v>7081.543852594338</v>
       </c>
       <c r="D13" t="n">
-        <v>22967.50021233975</v>
+        <v>7081.543852594338</v>
       </c>
     </row>
     <row r="14">
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>23150.80326</v>
+        <v>6942.236983359538</v>
       </c>
       <c r="D14" t="n">
-        <v>23150.80325520834</v>
+        <v>6942.236983359538</v>
       </c>
     </row>
     <row r="15">
@@ -644,13 +644,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>155.46437</v>
       </c>
       <c r="C15" t="n">
-        <v>23340.732115</v>
+        <v>6805.464374647029</v>
       </c>
       <c r="D15" t="n">
-        <v>23340.73211538462</v>
+        <v>6805.464374647029</v>
       </c>
     </row>
     <row r="16">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>23574.45207</v>
+        <v>6700.860354166667</v>
       </c>
       <c r="D16" t="n">
-        <v>23574.45206730768</v>
+        <v>6700.860354166667</v>
       </c>
     </row>
     <row r="17">
@@ -672,13 +672,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>231.81375</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>23677</v>
+        <v>6573.944079009435</v>
       </c>
       <c r="D17" t="n">
-        <v>23908.81374726836</v>
+        <v>6573.944079009435</v>
       </c>
     </row>
     <row r="18">
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>24257.86379</v>
+        <v>6458.399885220126</v>
       </c>
       <c r="D18" t="n">
-        <v>24257.8637900641</v>
+        <v>6458.399885220126</v>
       </c>
     </row>
     <row r="19">
@@ -703,10 +703,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>24635.07725</v>
+        <v>6344.008862814465</v>
       </c>
       <c r="D19" t="n">
-        <v>24635.07724559295</v>
+        <v>6344.008862814465</v>
       </c>
     </row>
     <row r="20">
@@ -717,10 +717,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>24951.345853</v>
+        <v>6296.413618823</v>
       </c>
       <c r="D20" t="n">
-        <v>24951.34585336538</v>
+        <v>6296.413618823</v>
       </c>
     </row>
     <row r="21">
@@ -728,13 +728,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3006.7478</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>22233</v>
+        <v>6243.884900157234</v>
       </c>
       <c r="D21" t="n">
-        <v>25239.74780649039</v>
+        <v>6243.884900157234</v>
       </c>
     </row>
     <row r="22">
@@ -742,13 +742,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>669.64981</v>
       </c>
       <c r="C22" t="n">
-        <v>25610.10985</v>
+        <v>6189.6498125</v>
       </c>
       <c r="D22" t="n">
-        <v>25610.10985176282</v>
+        <v>6189.6498125</v>
       </c>
     </row>
     <row r="23">
@@ -756,13 +756,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>305.05166</v>
+        <v>593.09501</v>
       </c>
       <c r="C23" t="n">
-        <v>25652</v>
+        <v>6097.095009040882</v>
       </c>
       <c r="D23" t="n">
-        <v>25957.05165865384</v>
+        <v>6097.095009040882</v>
       </c>
     </row>
     <row r="24">
@@ -770,13 +770,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>973.29528</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>25182</v>
+        <v>5975.383763891767</v>
       </c>
       <c r="D24" t="n">
-        <v>26155.29527844552</v>
+        <v>5975.383763891767</v>
       </c>
     </row>
     <row r="25">
@@ -784,13 +784,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1020.0316</v>
+        <v>45.876756</v>
       </c>
       <c r="C25" t="n">
-        <v>25268</v>
+        <v>5876.876755896226</v>
       </c>
       <c r="D25" t="n">
-        <v>26288.03159054487</v>
+        <v>5876.876755896226</v>
       </c>
     </row>
     <row r="26">
@@ -798,13 +798,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1021.6627</v>
       </c>
       <c r="C26" t="n">
-        <v>26448.60825</v>
+        <v>5809.662657232706</v>
       </c>
       <c r="D26" t="n">
-        <v>26448.60825320513</v>
+        <v>5809.662657232706</v>
       </c>
     </row>
     <row r="27">
@@ -812,13 +812,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>268.76546</v>
       </c>
       <c r="C27" t="n">
-        <v>26584.23749</v>
+        <v>5740.765462657235</v>
       </c>
       <c r="D27" t="n">
-        <v>26584.23749399038</v>
+        <v>5740.765462657235</v>
       </c>
     </row>
     <row r="28">
@@ -826,13 +826,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>280.20427</v>
       </c>
       <c r="C28" t="n">
-        <v>26772.10066</v>
+        <v>5736.204265330188</v>
       </c>
       <c r="D28" t="n">
-        <v>26772.10066297381</v>
+        <v>5736.204265330188</v>
       </c>
     </row>
     <row r="29">
@@ -840,13 +840,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>590.18962</v>
       </c>
       <c r="C29" t="n">
-        <v>26951.7476437</v>
+        <v>5705.189619103774</v>
       </c>
       <c r="D29" t="n">
-        <v>26951.74764371931</v>
+        <v>5705.189619103774</v>
       </c>
     </row>
     <row r="30">
@@ -854,13 +854,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>857.1621699999999</v>
       </c>
       <c r="C30" t="n">
-        <v>27088.2573635</v>
+        <v>5631.16216509434</v>
       </c>
       <c r="D30" t="n">
-        <v>27088.25736352076</v>
+        <v>5631.16216509434</v>
       </c>
     </row>
     <row r="31">
@@ -868,13 +868,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>176.51613</v>
+        <v>461.64732</v>
       </c>
       <c r="C31" t="n">
-        <v>27075</v>
+        <v>5561.647323113209</v>
       </c>
       <c r="D31" t="n">
-        <v>27251.51612780449</v>
+        <v>5561.647323113209</v>
       </c>
     </row>
     <row r="32">
@@ -882,13 +882,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>750.15413</v>
       </c>
       <c r="C32" t="n">
-        <v>27484.96916</v>
+        <v>5496.154134827043</v>
       </c>
       <c r="D32" t="n">
-        <v>27484.96915891513</v>
+        <v>5496.154134827043</v>
       </c>
     </row>
     <row r="33">
@@ -896,13 +896,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.8409427</v>
+        <v>700.21764</v>
       </c>
       <c r="C33" t="n">
-        <v>27715</v>
+        <v>5446.217636792454</v>
       </c>
       <c r="D33" t="n">
-        <v>27718.84094273685</v>
+        <v>5446.217636792454</v>
       </c>
     </row>
     <row r="34">
@@ -910,13 +910,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>974.08079</v>
       </c>
       <c r="C34" t="n">
-        <v>28167.07365</v>
+        <v>5368.080786556607</v>
       </c>
       <c r="D34" t="n">
-        <v>28167.07364787582</v>
+        <v>5368.080786556607</v>
       </c>
     </row>
     <row r="35">
@@ -924,13 +924,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>594.66736</v>
       </c>
       <c r="C35" t="n">
-        <v>28152.66965</v>
+        <v>5326.667361242139</v>
       </c>
       <c r="D35" t="n">
-        <v>28152.66965435314</v>
+        <v>5326.667361242139</v>
       </c>
     </row>
     <row r="36">
@@ -938,13 +938,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>61.018337</v>
+        <v>925.39367</v>
       </c>
       <c r="C36" t="n">
-        <v>28282</v>
+        <v>5319.393665094341</v>
       </c>
       <c r="D36" t="n">
-        <v>28343.01833744519</v>
+        <v>5319.393665094341</v>
       </c>
     </row>
     <row r="37">
@@ -952,13 +952,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1211.9879</v>
       </c>
       <c r="C37" t="n">
-        <v>28557.01969</v>
+        <v>5267.987859669812</v>
       </c>
       <c r="D37" t="n">
-        <v>28557.01969150641</v>
+        <v>5267.987859669812</v>
       </c>
     </row>
     <row r="38">
@@ -966,13 +966,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1201.7586</v>
       </c>
       <c r="C38" t="n">
-        <v>28655.61618</v>
+        <v>5257.758583333334</v>
       </c>
       <c r="D38" t="n">
-        <v>28655.61617788461</v>
+        <v>5257.758583333334</v>
       </c>
     </row>
     <row r="39">
@@ -980,13 +980,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>1474.5307</v>
       </c>
       <c r="C39" t="n">
-        <v>28878.80043</v>
+        <v>5181.530741352201</v>
       </c>
       <c r="D39" t="n">
-        <v>28878.8004286859</v>
+        <v>5181.530741352201</v>
       </c>
     </row>
     <row r="40">
@@ -994,13 +994,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1080.4633</v>
+        <v>1463.6947</v>
       </c>
       <c r="C40" t="n">
-        <v>28099</v>
+        <v>5170.694737421384</v>
       </c>
       <c r="D40" t="n">
-        <v>29179.46331530449</v>
+        <v>5170.694737421384</v>
       </c>
     </row>
     <row r="41">
@@ -1008,13 +1008,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>2576.091</v>
+        <v>751.85379</v>
       </c>
       <c r="C41" t="n">
-        <v>26871</v>
+        <v>5132.853791666666</v>
       </c>
       <c r="D41" t="n">
-        <v>29447.09103165064</v>
+        <v>5132.853791666666</v>
       </c>
     </row>
     <row r="42">
@@ -1022,13 +1022,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>421.14236</v>
+        <v>25.468793</v>
       </c>
       <c r="C42" t="n">
-        <v>29280</v>
+        <v>5065.468793238995</v>
       </c>
       <c r="D42" t="n">
-        <v>29701.14236177885</v>
+        <v>5065.468793238995</v>
       </c>
     </row>
     <row r="43">
@@ -1036,13 +1036,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1980.0091</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>27987</v>
+        <v>4994.890676493711</v>
       </c>
       <c r="D43" t="n">
-        <v>29967.00909655449</v>
+        <v>4994.890676493711</v>
       </c>
     </row>
     <row r="44">
@@ -1050,13 +1050,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>2786.0634</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>27388</v>
+        <v>4932.131473875182</v>
       </c>
       <c r="D44" t="n">
-        <v>30174.06342748398</v>
+        <v>4932.131473875182</v>
       </c>
     </row>
     <row r="45">
@@ -1064,13 +1064,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>2343.5234</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>27985</v>
+        <v>4877.611961477988</v>
       </c>
       <c r="D45" t="n">
-        <v>30328.52344350961</v>
+        <v>4877.611961477988</v>
       </c>
     </row>
     <row r="46">
@@ -1078,13 +1078,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4840.1674</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>25634</v>
+        <v>4817.930554245283</v>
       </c>
       <c r="D46" t="n">
-        <v>30474.16743589744</v>
+        <v>4817.930554245283</v>
       </c>
     </row>
     <row r="47">
@@ -1092,13 +1092,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>2250.1311</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>28444</v>
+        <v>4746.558505896224</v>
       </c>
       <c r="D47" t="n">
-        <v>30694.13110833149</v>
+        <v>4746.558505896224</v>
       </c>
     </row>
     <row r="48">
@@ -1106,13 +1106,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>2457.9489</v>
+        <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>28452</v>
+        <v>4707.732686879346</v>
       </c>
       <c r="D48" t="n">
-        <v>30909.94885186511</v>
+        <v>4707.732686879346</v>
       </c>
     </row>
     <row r="49">
@@ -1120,13 +1120,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>2134.5902</v>
+        <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>29050</v>
+        <v>4693.032840305363</v>
       </c>
       <c r="D49" t="n">
-        <v>31184.59024042724</v>
+        <v>4693.032840305363</v>
       </c>
     </row>
     <row r="50">
@@ -1134,13 +1134,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>2476.1415</v>
+        <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>28935</v>
+        <v>4697.300057389938</v>
       </c>
       <c r="D50" t="n">
-        <v>31411.14150456979</v>
+        <v>4697.300057389938</v>
       </c>
     </row>
     <row r="51">
@@ -1148,13 +1148,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>3904.6735</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>27743</v>
+        <v>4770.199878155278</v>
       </c>
       <c r="D51" t="n">
-        <v>31647.67350761218</v>
+        <v>4770.199878155278</v>
       </c>
     </row>
     <row r="52">
@@ -1162,13 +1162,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>3008.4819</v>
+        <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>28875</v>
+        <v>4787.072652515722</v>
       </c>
       <c r="D52" t="n">
-        <v>31883.48186311432</v>
+        <v>4787.072652515722</v>
       </c>
     </row>
     <row r="53">
@@ -1176,13 +1176,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>7735.3345</v>
+        <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>24467</v>
+        <v>4757.386219732704</v>
       </c>
       <c r="D53" t="n">
-        <v>32202.33453494324</v>
+        <v>4757.386219732704</v>
       </c>
     </row>
     <row r="54">
@@ -1190,13 +1190,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>5995.9708</v>
+        <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>26521</v>
+        <v>4794.228326797434</v>
       </c>
       <c r="D54" t="n">
-        <v>32516.97075520832</v>
+        <v>4794.228326797434</v>
       </c>
     </row>
     <row r="55">
@@ -1204,13 +1204,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>6917.144</v>
+        <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>25872</v>
+        <v>4867.115969150642</v>
       </c>
       <c r="D55" t="n">
-        <v>32789.14399439102</v>
+        <v>4867.115969150642</v>
       </c>
     </row>
     <row r="56">
@@ -1218,13 +1218,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4825.6898</v>
+        <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>28200</v>
+        <v>4978.263744582637</v>
       </c>
       <c r="D56" t="n">
-        <v>33025.68981370194</v>
+        <v>4978.263744582637</v>
       </c>
     </row>
     <row r="57">
@@ -1232,13 +1232,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>6304.544</v>
+        <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>27002</v>
+        <v>5030.083334535257</v>
       </c>
       <c r="D57" t="n">
-        <v>33306.54397035256</v>
+        <v>5030.083334535257</v>
       </c>
     </row>
     <row r="58">
@@ -1246,13 +1246,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>7331.9588</v>
+        <v>1012.2197</v>
       </c>
       <c r="C58" t="n">
-        <v>26262</v>
+        <v>5044.219734375001</v>
       </c>
       <c r="D58" t="n">
-        <v>33593.95882812499</v>
+        <v>5044.219734375001</v>
       </c>
     </row>
     <row r="59">
@@ -1260,13 +1260,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>7090.7886</v>
+        <v>650.39926</v>
       </c>
       <c r="C59" t="n">
-        <v>26776</v>
+        <v>5005.399262019231</v>
       </c>
       <c r="D59" t="n">
-        <v>33866.78864608939</v>
+        <v>5005.399262019231</v>
       </c>
     </row>
     <row r="60">
@@ -1274,13 +1274,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>7117.6107</v>
+        <v>228.68394</v>
       </c>
       <c r="C60" t="n">
-        <v>26933</v>
+        <v>4918.683939640796</v>
       </c>
       <c r="D60" t="n">
-        <v>34050.61068709936</v>
+        <v>4918.683939640796</v>
       </c>
     </row>
     <row r="61">
@@ -1288,13 +1288,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>7448.6149</v>
+        <v>218.32039</v>
       </c>
       <c r="C61" t="n">
-        <v>26747</v>
+        <v>4908.320393867924</v>
       </c>
       <c r="D61" t="n">
-        <v>34195.61492588141</v>
+        <v>4908.320393867924</v>
       </c>
     </row>
     <row r="62">
@@ -1302,13 +1302,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>9920.755499999999</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>24476</v>
+        <v>4897.19351523819</v>
       </c>
       <c r="D62" t="n">
-        <v>34396.75546274038</v>
+        <v>4897.19351523819</v>
       </c>
     </row>
     <row r="63">
@@ -1316,13 +1316,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>10547.356</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>24012</v>
+        <v>4939.251740741669</v>
       </c>
       <c r="D63" t="n">
-        <v>34559.356328125</v>
+        <v>4939.251740741669</v>
       </c>
     </row>
     <row r="64">
@@ -1330,13 +1330,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>10160.421</v>
+        <v>636.76388</v>
       </c>
       <c r="C64" t="n">
-        <v>24549</v>
+        <v>4991.763884668139</v>
       </c>
       <c r="D64" t="n">
-        <v>34709.42095953525</v>
+        <v>4991.763884668139</v>
       </c>
     </row>
     <row r="65">
@@ -1344,13 +1344,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>10498.912</v>
+        <v>63.000557</v>
       </c>
       <c r="C65" t="n">
-        <v>24355</v>
+        <v>5103.00055738994</v>
       </c>
       <c r="D65" t="n">
-        <v>34853.91169270833</v>
+        <v>5103.00055738994</v>
       </c>
     </row>
     <row r="66">
@@ -1358,13 +1358,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>12299.827</v>
+        <v>84.38558500000001</v>
       </c>
       <c r="C66" t="n">
-        <v>22727</v>
+        <v>5139.385584601339</v>
       </c>
       <c r="D66" t="n">
-        <v>35026.82745192308</v>
+        <v>5139.385584601339</v>
       </c>
     </row>
     <row r="67">
@@ -1372,13 +1372,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>9883.369199999999</v>
+        <v>468.9961</v>
       </c>
       <c r="C67" t="n">
-        <v>25262</v>
+        <v>5186.996100378788</v>
       </c>
       <c r="D67" t="n">
-        <v>35145.36916065705</v>
+        <v>5186.996100378788</v>
       </c>
     </row>
     <row r="68">
@@ -1386,13 +1386,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>7841.1995</v>
+        <v>1494.3038</v>
       </c>
       <c r="C68" t="n">
-        <v>27398</v>
+        <v>5201.303784549818</v>
       </c>
       <c r="D68" t="n">
-        <v>35239.19948116988</v>
+        <v>5201.303784549818</v>
       </c>
     </row>
     <row r="69">
@@ -1400,13 +1400,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>9792.654200000001</v>
+        <v>1172.3151</v>
       </c>
       <c r="C69" t="n">
-        <v>25573</v>
+        <v>5216.315055988515</v>
       </c>
       <c r="D69" t="n">
-        <v>35365.65420230264</v>
+        <v>5216.315055988515</v>
       </c>
     </row>
     <row r="70">
@@ -1414,13 +1414,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>8811.3405</v>
+        <v>854.54576</v>
       </c>
       <c r="C70" t="n">
-        <v>26716</v>
+        <v>5235.545762472521</v>
       </c>
       <c r="D70" t="n">
-        <v>35527.34048677883</v>
+        <v>5235.545762472521</v>
       </c>
     </row>
     <row r="71">
@@ -1428,13 +1428,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>8254.4787</v>
+        <v>880.41533</v>
       </c>
       <c r="C71" t="n">
-        <v>27373</v>
+        <v>5274.415334756887</v>
       </c>
       <c r="D71" t="n">
-        <v>35627.47871794872</v>
+        <v>5274.415334756887</v>
       </c>
     </row>
     <row r="72">
@@ -1442,13 +1442,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>9389.882600000001</v>
+        <v>1289.3443</v>
       </c>
       <c r="C72" t="n">
-        <v>26287</v>
+        <v>5345.344305689103</v>
       </c>
       <c r="D72" t="n">
-        <v>35676.88260817308</v>
+        <v>5345.344305689103</v>
       </c>
     </row>
     <row r="73">
@@ -1456,13 +1456,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>9996.585999999999</v>
+        <v>1411.6742</v>
       </c>
       <c r="C73" t="n">
-        <v>25652</v>
+        <v>5479.674223557695</v>
       </c>
       <c r="D73" t="n">
-        <v>35648.58604366988</v>
+        <v>5479.674223557695</v>
       </c>
     </row>
     <row r="74">
@@ -1470,13 +1470,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>10745.074</v>
+        <v>1198.0945</v>
       </c>
       <c r="C74" t="n">
-        <v>24913</v>
+        <v>5618.094496794874</v>
       </c>
       <c r="D74" t="n">
-        <v>35658.07391826923</v>
+        <v>5618.094496794874</v>
       </c>
     </row>
     <row r="75">
@@ -1484,13 +1484,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>10206.124</v>
+        <v>1293.2611</v>
       </c>
       <c r="C75" t="n">
-        <v>25548</v>
+        <v>5726.261127804488</v>
       </c>
       <c r="D75" t="n">
-        <v>35754.12434695513</v>
+        <v>5726.261127804488</v>
       </c>
     </row>
     <row r="76">
@@ -1498,13 +1498,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>12167.28</v>
+        <v>1323.5408</v>
       </c>
       <c r="C76" t="n">
-        <v>23725</v>
+        <v>5769.540843802257</v>
       </c>
       <c r="D76" t="n">
-        <v>35892.28002003206</v>
+        <v>5769.540843802257</v>
       </c>
     </row>
     <row r="77">
@@ -1512,13 +1512,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>11649.741</v>
+        <v>675.68604</v>
       </c>
       <c r="C77" t="n">
-        <v>24360</v>
+        <v>5805.686035430602</v>
       </c>
       <c r="D77" t="n">
-        <v>36009.74071113782</v>
+        <v>5805.686035430602</v>
       </c>
     </row>
     <row r="78">
@@ -1526,13 +1526,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>10189.163</v>
+        <v>757.4117199999999</v>
       </c>
       <c r="C78" t="n">
-        <v>25920</v>
+        <v>5902.411716097106</v>
       </c>
       <c r="D78" t="n">
-        <v>36109.16329126601</v>
+        <v>5902.411716097106</v>
       </c>
     </row>
     <row r="79">
@@ -1540,13 +1540,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>10524.364</v>
+        <v>1161.5247</v>
       </c>
       <c r="C79" t="n">
-        <v>25608</v>
+        <v>5963.524661976208</v>
       </c>
       <c r="D79" t="n">
-        <v>36132.36359775641</v>
+        <v>5963.524661976208</v>
       </c>
     </row>
     <row r="80">
@@ -1554,13 +1554,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>10612.413</v>
+        <v>1229.6035</v>
       </c>
       <c r="C80" t="n">
-        <v>25586</v>
+        <v>6045.603510708043</v>
       </c>
       <c r="D80" t="n">
-        <v>36198.41312788597</v>
+        <v>6045.603510708043</v>
       </c>
     </row>
     <row r="81">
@@ -1568,13 +1568,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>9790.1245</v>
+        <v>1961.8585</v>
       </c>
       <c r="C81" t="n">
-        <v>26527</v>
+        <v>6089.858499965161</v>
       </c>
       <c r="D81" t="n">
-        <v>36317.12445713141</v>
+        <v>6089.858499965161</v>
       </c>
     </row>
     <row r="82">
@@ -1582,13 +1582,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>12659.652</v>
+        <v>1675.9598</v>
       </c>
       <c r="C82" t="n">
-        <v>23675</v>
+        <v>6160.959799510796</v>
       </c>
       <c r="D82" t="n">
-        <v>36334.65170673076</v>
+        <v>6160.959799510796</v>
       </c>
     </row>
     <row r="83">
@@ -1596,13 +1596,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>7947.6168</v>
+        <v>2131.3113</v>
       </c>
       <c r="C83" t="n">
-        <v>28413</v>
+        <v>6283.311283653844</v>
       </c>
       <c r="D83" t="n">
-        <v>36360.61684294872</v>
+        <v>6283.311283653844</v>
       </c>
     </row>
     <row r="84">
@@ -1610,13 +1610,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>9332.4557</v>
+        <v>2195.821</v>
       </c>
       <c r="C84" t="n">
-        <v>27114</v>
+        <v>6359.821012152435</v>
       </c>
       <c r="D84" t="n">
-        <v>36446.4557391827</v>
+        <v>6359.821012152435</v>
       </c>
     </row>
     <row r="85">
@@ -1624,13 +1624,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>11842.756</v>
+        <v>1940.2709</v>
       </c>
       <c r="C85" t="n">
-        <v>24679</v>
+        <v>6464.270917483661</v>
       </c>
       <c r="D85" t="n">
-        <v>36521.75556690705</v>
+        <v>6464.270917483661</v>
       </c>
     </row>
     <row r="86">
@@ -1638,13 +1638,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>10331.181</v>
+        <v>1290.1576</v>
       </c>
       <c r="C86" t="n">
-        <v>26179</v>
+        <v>6510.15756862745</v>
       </c>
       <c r="D86" t="n">
-        <v>36510.18084535256</v>
+        <v>6510.15756862745</v>
       </c>
     </row>
     <row r="87">
@@ -1652,13 +1652,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>11192.119</v>
+        <v>1776.8391</v>
       </c>
       <c r="C87" t="n">
-        <v>25316</v>
+        <v>6662.839077205884</v>
       </c>
       <c r="D87" t="n">
-        <v>36508.11888822116</v>
+        <v>6662.839077205884</v>
       </c>
     </row>
     <row r="88">
@@ -1666,13 +1666,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>11725.762</v>
+        <v>1583.7507</v>
       </c>
       <c r="C88" t="n">
-        <v>24792</v>
+        <v>6848.750745915035</v>
       </c>
       <c r="D88" t="n">
-        <v>36517.7624539263</v>
+        <v>6848.750745915035</v>
       </c>
     </row>
     <row r="89">
@@ -1680,13 +1680,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>10833.041</v>
+        <v>1744.3581</v>
       </c>
       <c r="C89" t="n">
-        <v>25564</v>
+        <v>7039.358056781044</v>
       </c>
       <c r="D89" t="n">
-        <v>36397.04149085595</v>
+        <v>7039.358056781044</v>
       </c>
     </row>
     <row r="90">
@@ -1694,13 +1694,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>9782.389499999999</v>
+        <v>2231.1706</v>
       </c>
       <c r="C90" t="n">
-        <v>26614</v>
+        <v>7187.170636994949</v>
       </c>
       <c r="D90" t="n">
-        <v>36396.38950120191</v>
+        <v>7187.170636994949</v>
       </c>
     </row>
     <row r="91">
@@ -1708,13 +1708,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>9270.2754</v>
+        <v>2301.1513</v>
       </c>
       <c r="C91" t="n">
-        <v>27139</v>
+        <v>7257.15131505848</v>
       </c>
       <c r="D91" t="n">
-        <v>36409.27540865384</v>
+        <v>7257.15131505848</v>
       </c>
     </row>
     <row r="92">
@@ -1722,13 +1722,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>8756.893599999999</v>
+        <v>2304.0009</v>
       </c>
       <c r="C92" t="n">
-        <v>27664</v>
+        <v>7274.000852532681</v>
       </c>
       <c r="D92" t="n">
-        <v>36420.89359775641</v>
+        <v>7274.000852532681</v>
       </c>
     </row>
     <row r="93">
@@ -1736,13 +1736,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>9696.319100000001</v>
+        <v>2213.6571</v>
       </c>
       <c r="C93" t="n">
-        <v>26726</v>
+        <v>7169.657092147438</v>
       </c>
       <c r="D93" t="n">
-        <v>36422.31907114241</v>
+        <v>7169.657092147438</v>
       </c>
     </row>
     <row r="94">
@@ -1750,13 +1750,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>10930.593</v>
+        <v>2254.5342</v>
       </c>
       <c r="C94" t="n">
-        <v>25452</v>
+        <v>7210.534220964067</v>
       </c>
       <c r="D94" t="n">
-        <v>36382.5930048077</v>
+        <v>7210.534220964067</v>
       </c>
     </row>
     <row r="95">
@@ -1764,13 +1764,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>10340.769</v>
+        <v>2402.1052</v>
       </c>
       <c r="C95" t="n">
-        <v>26001</v>
+        <v>7386.105211357189</v>
       </c>
       <c r="D95" t="n">
-        <v>36341.76864182691</v>
+        <v>7386.105211357189</v>
       </c>
     </row>
     <row r="96">
@@ -1778,13 +1778,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>10595.756</v>
+        <v>2922.3264</v>
       </c>
       <c r="C96" t="n">
-        <v>25697</v>
+        <v>7563.32643790064</v>
       </c>
       <c r="D96" t="n">
-        <v>36292.75550881412</v>
+        <v>7563.32643790064</v>
       </c>
     </row>
     <row r="97">
@@ -1792,13 +1792,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>8300.3693</v>
+        <v>3069.4574</v>
       </c>
       <c r="C97" t="n">
-        <v>27912</v>
+        <v>7736.457393210954</v>
       </c>
       <c r="D97" t="n">
-        <v>36212.36934094551</v>
+        <v>7736.457393210954</v>
       </c>
     </row>
     <row r="98">
@@ -1806,13 +1806,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>8877.1574</v>
+        <v>3534.2965</v>
       </c>
       <c r="C98" t="n">
-        <v>27300</v>
+        <v>7854.296507211539</v>
       </c>
       <c r="D98" t="n">
-        <v>36177.1574178686</v>
+        <v>7854.296507211539</v>
       </c>
     </row>
     <row r="99">
@@ -1820,13 +1820,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>8981.8372</v>
+        <v>3666.6223</v>
       </c>
       <c r="C99" t="n">
-        <v>27110</v>
+        <v>7998.622256114129</v>
       </c>
       <c r="D99" t="n">
-        <v>36091.83719150641</v>
+        <v>7998.622256114129</v>
       </c>
     </row>
     <row r="100">
@@ -1834,13 +1834,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>10538.992</v>
+        <v>3935.9683</v>
       </c>
       <c r="C100" t="n">
-        <v>25523</v>
+        <v>8303.968344362744</v>
       </c>
       <c r="D100" t="n">
-        <v>36061.99225761218</v>
+        <v>8303.968344362744</v>
       </c>
     </row>
     <row r="101">
@@ -1848,13 +1848,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>12552.069</v>
+        <v>4150.1475</v>
       </c>
       <c r="C101" t="n">
-        <v>23300</v>
+        <v>8542.147453022873</v>
       </c>
       <c r="D101" t="n">
-        <v>35852.06898191822</v>
+        <v>8542.147453022873</v>
       </c>
     </row>
     <row r="102">
@@ -1862,13 +1862,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>11750.291</v>
+        <v>4084.2981</v>
       </c>
       <c r="C102" t="n">
-        <v>23955</v>
+        <v>8881.298094771242</v>
       </c>
       <c r="D102" t="n">
-        <v>35705.29105916098</v>
+        <v>8881.298094771242</v>
       </c>
     </row>
     <row r="103">
@@ -1876,13 +1876,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>11056.024</v>
+        <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>24507</v>
+        <v>9105.430764744709</v>
       </c>
       <c r="D103" t="n">
-        <v>35563.02368907233</v>
+        <v>9105.430764744709</v>
       </c>
     </row>
     <row r="104">
@@ -1890,13 +1890,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>8589.7413</v>
+        <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>26740</v>
+        <v>9336.805347756412</v>
       </c>
       <c r="D104" t="n">
-        <v>35329.7413345126</v>
+        <v>9336.805347756412</v>
       </c>
     </row>
     <row r="105">
@@ -1904,13 +1904,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>8180.1826</v>
+        <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>26864</v>
+        <v>9481.269430520413</v>
       </c>
       <c r="D105" t="n">
-        <v>35044.18261202831</v>
+        <v>9481.269430520413</v>
       </c>
     </row>
     <row r="106">
@@ -1918,13 +1918,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>8531.6999</v>
+        <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>26254</v>
+        <v>9581.160181667519</v>
       </c>
       <c r="D106" t="n">
-        <v>34785.69986242138</v>
+        <v>9581.160181667519</v>
       </c>
     </row>
     <row r="107">
@@ -1932,13 +1932,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>8955.6031</v>
+        <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>25623</v>
+        <v>9650.324109669815</v>
       </c>
       <c r="D107" t="n">
-        <v>34578.60311124213</v>
+        <v>9650.324109669815</v>
       </c>
     </row>
     <row r="108">
@@ -1946,13 +1946,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>8804.035</v>
+        <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>25552</v>
+        <v>9693.996498397435</v>
       </c>
       <c r="D108" t="n">
-        <v>34356.03501179246</v>
+        <v>9693.996498397435</v>
       </c>
     </row>
     <row r="109">
@@ -1960,13 +1960,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>6718.2064</v>
+        <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>27449</v>
+        <v>9818.358018429486</v>
       </c>
       <c r="D109" t="n">
-        <v>34167.2064308176</v>
+        <v>9818.358018429486</v>
       </c>
     </row>
     <row r="110">
@@ -1974,13 +1974,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>6374.722</v>
+        <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>27432</v>
+        <v>10017.998212111</v>
       </c>
       <c r="D110" t="n">
-        <v>33806.72195286372</v>
+        <v>10017.998212111</v>
       </c>
     </row>
     <row r="111">
@@ -1988,13 +1988,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>7275.2691</v>
+        <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>26262</v>
+        <v>10201.93325157233</v>
       </c>
       <c r="D111" t="n">
-        <v>33537.26905048075</v>
+        <v>10201.93325157233</v>
       </c>
     </row>
     <row r="112">
@@ -2002,13 +2002,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>5911.4097</v>
+        <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>27546</v>
+        <v>10326.58465672731</v>
       </c>
       <c r="D112" t="n">
-        <v>33457.40972091195</v>
+        <v>10326.58465672731</v>
       </c>
     </row>
     <row r="113">
@@ -2016,13 +2016,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>5100.5142</v>
+        <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>28092</v>
+        <v>10516.74125157232</v>
       </c>
       <c r="D113" t="n">
-        <v>33192.51417256289</v>
+        <v>10516.74125157232</v>
       </c>
     </row>
     <row r="114">
@@ -2030,13 +2030,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>5436.236</v>
+        <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>27491</v>
+        <v>10708.43797798742</v>
       </c>
       <c r="D114" t="n">
-        <v>32927.23595125786</v>
+        <v>10708.43797798742</v>
       </c>
     </row>
     <row r="115">
@@ -2044,13 +2044,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4531.5156</v>
+        <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>28169</v>
+        <v>10835.95921631058</v>
       </c>
       <c r="D115" t="n">
-        <v>32700.51564815765</v>
+        <v>10835.95921631058</v>
       </c>
     </row>
     <row r="116">
@@ -2058,13 +2058,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4861.4256</v>
+        <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>27621</v>
+        <v>10919.27249095913</v>
       </c>
       <c r="D116" t="n">
-        <v>32482.4255797956</v>
+        <v>10919.27249095913</v>
       </c>
     </row>
     <row r="117">
@@ -2072,13 +2072,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>5109.7573</v>
+        <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>27117</v>
+        <v>11010.84913278566</v>
       </c>
       <c r="D117" t="n">
-        <v>32226.75729092878</v>
+        <v>11010.84913278566</v>
       </c>
     </row>
     <row r="118">
@@ -2086,13 +2086,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4890.5544</v>
+        <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>27070</v>
+        <v>11149.20922251615</v>
       </c>
       <c r="D118" t="n">
-        <v>31960.55436517296</v>
+        <v>11149.20922251615</v>
       </c>
     </row>
     <row r="119">
@@ -2100,13 +2100,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4466.9595</v>
+        <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>27186</v>
+        <v>11319.90273643868</v>
       </c>
       <c r="D119" t="n">
-        <v>31652.95947720126</v>
+        <v>11319.90273643868</v>
       </c>
     </row>
     <row r="120">
@@ -2114,13 +2114,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4209.6293</v>
+        <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>27190</v>
+        <v>11464.59610041245</v>
       </c>
       <c r="D120" t="n">
-        <v>31399.6293081761</v>
+        <v>11464.59610041245</v>
       </c>
     </row>
     <row r="121">
@@ -2128,13 +2128,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>2703.1873</v>
+        <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>28425</v>
+        <v>11610.20647736972</v>
       </c>
       <c r="D121" t="n">
-        <v>31128.18731132076</v>
+        <v>11610.20647736972</v>
       </c>
     </row>
     <row r="122">
@@ -2142,13 +2142,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>2348.786</v>
+        <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>28477</v>
+        <v>11773.37914806769</v>
       </c>
       <c r="D122" t="n">
-        <v>30825.78604247595</v>
+        <v>11773.37914806769</v>
       </c>
     </row>
     <row r="123">
@@ -2156,13 +2156,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>3238.1278</v>
+        <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>27314</v>
+        <v>11927.56850196541</v>
       </c>
       <c r="D123" t="n">
-        <v>30552.12776926101</v>
+        <v>11927.56850196541</v>
       </c>
     </row>
     <row r="124">
@@ -2170,13 +2170,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>2264.6652</v>
+        <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>27986</v>
+        <v>12148.77207507862</v>
       </c>
       <c r="D124" t="n">
-        <v>30250.6652141734</v>
+        <v>12148.77207507862</v>
       </c>
     </row>
     <row r="125">
@@ -2184,13 +2184,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>2067.5061</v>
+        <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>27962</v>
+        <v>12398.40274410377</v>
       </c>
       <c r="D125" t="n">
-        <v>30029.5061250663</v>
+        <v>12398.40274410377</v>
       </c>
     </row>
     <row r="126">
@@ -2198,13 +2198,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>2956.2248</v>
+        <v>0</v>
       </c>
       <c r="C126" t="n">
-        <v>26820</v>
+        <v>12648.00237331536</v>
       </c>
       <c r="D126" t="n">
-        <v>29776.22482572115</v>
+        <v>12648.00237331536</v>
       </c>
     </row>
     <row r="127">
@@ -2212,13 +2212,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1980.5689</v>
+        <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>27490</v>
+        <v>12905.3529643725</v>
       </c>
       <c r="D127" t="n">
-        <v>29470.56886217948</v>
+        <v>12905.3529643725</v>
       </c>
     </row>
     <row r="128">
@@ -2226,13 +2226,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1643.0614</v>
+        <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>27518</v>
+        <v>13154.87863929734</v>
       </c>
       <c r="D128" t="n">
-        <v>29161.0614082532</v>
+        <v>13154.87863929734</v>
       </c>
     </row>
     <row r="129">
@@ -2240,13 +2240,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>653.43981</v>
+        <v>0</v>
       </c>
       <c r="C129" t="n">
-        <v>28155</v>
+        <v>13488.31083257235</v>
       </c>
       <c r="D129" t="n">
-        <v>28808.4398076923</v>
+        <v>13488.31083257235</v>
       </c>
     </row>
     <row r="130">
@@ -2257,10 +2257,10 @@
         <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>28413.88798</v>
+        <v>13761.76417927405</v>
       </c>
       <c r="D130" t="n">
-        <v>28413.88797676282</v>
+        <v>13761.76417927405</v>
       </c>
     </row>
     <row r="131">
@@ -2268,13 +2268,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>218.83862</v>
+        <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>27761</v>
+        <v>13884.87773903996</v>
       </c>
       <c r="D131" t="n">
-        <v>27979.83862118336</v>
+        <v>13884.87773903996</v>
       </c>
     </row>
     <row r="132">
@@ -2285,10 +2285,10 @@
         <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>27553.17541</v>
+        <v>14177.62399803459</v>
       </c>
       <c r="D132" t="n">
-        <v>27553.17540665064</v>
+        <v>14177.62399803459</v>
       </c>
     </row>
     <row r="133">
@@ -2299,10 +2299,10 @@
         <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>27146.811681</v>
+        <v>14464.33861354209</v>
       </c>
       <c r="D133" t="n">
-        <v>27146.81168068911</v>
+        <v>14464.33861354209</v>
       </c>
     </row>
     <row r="134">
@@ -2313,10 +2313,10 @@
         <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>26800.77948</v>
+        <v>14703.28252672955</v>
       </c>
       <c r="D134" t="n">
-        <v>26800.77948317308</v>
+        <v>14703.28252672955</v>
       </c>
     </row>
     <row r="135">
@@ -2327,10 +2327,10 @@
         <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>26454.84871</v>
+        <v>14841.5928663522</v>
       </c>
       <c r="D135" t="n">
-        <v>26454.84870793269</v>
+        <v>14841.5928663522</v>
       </c>
     </row>
     <row r="136">
@@ -2341,10 +2341,10 @@
         <v>0</v>
       </c>
       <c r="C136" t="n">
-        <v>26358.90532</v>
+        <v>15004.08202608557</v>
       </c>
       <c r="D136" t="n">
-        <v>26358.90531923257</v>
+        <v>15004.08202608557</v>
       </c>
     </row>
     <row r="137">
@@ -2355,10 +2355,10 @@
         <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>25793.58531</v>
+        <v>15223.72424124499</v>
       </c>
       <c r="D137" t="n">
-        <v>25793.58531313932</v>
+        <v>15223.72424124499</v>
       </c>
     </row>
     <row r="138">
@@ -2369,10 +2369,10 @@
         <v>0</v>
       </c>
       <c r="C138" t="n">
-        <v>25503.56123</v>
+        <v>15433.37642076595</v>
       </c>
       <c r="D138" t="n">
-        <v>25503.56123397436</v>
+        <v>15433.37642076595</v>
       </c>
     </row>
     <row r="139">
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>25482.6822</v>
+        <v>15787.4523470912</v>
       </c>
       <c r="D139" t="n">
-        <v>25482.68219732704</v>
+        <v>15787.4523470912</v>
       </c>
     </row>
     <row r="140">
@@ -2397,10 +2397,10 @@
         <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>25279.15752</v>
+        <v>16154.32213085485</v>
       </c>
       <c r="D140" t="n">
-        <v>25279.15751572328</v>
+        <v>16154.32213085485</v>
       </c>
     </row>
     <row r="141">
@@ -2411,10 +2411,10 @@
         <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>24996.36807</v>
+        <v>16456.07516234276</v>
       </c>
       <c r="D141" t="n">
-        <v>24996.36806996855</v>
+        <v>16456.07516234276</v>
       </c>
     </row>
     <row r="142">
@@ -2425,10 +2425,10 @@
         <v>0</v>
       </c>
       <c r="C142" t="n">
-        <v>24724.48801</v>
+        <v>16703.31396769894</v>
       </c>
       <c r="D142" t="n">
-        <v>24724.48800511006</v>
+        <v>16703.31396769894</v>
       </c>
     </row>
     <row r="143">
@@ -2439,10 +2439,10 @@
         <v>0</v>
       </c>
       <c r="C143" t="n">
-        <v>24432.67798</v>
+        <v>16922.59968876469</v>
       </c>
       <c r="D143" t="n">
-        <v>24432.67797687964</v>
+        <v>16922.59968876469</v>
       </c>
     </row>
     <row r="144">
@@ -2453,10 +2453,10 @@
         <v>0</v>
       </c>
       <c r="C144" t="n">
-        <v>24164.78621</v>
+        <v>17284.19493389423</v>
       </c>
       <c r="D144" t="n">
-        <v>24164.78621462265</v>
+        <v>17284.19493389423</v>
       </c>
     </row>
     <row r="145">
@@ -2464,13 +2464,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>0</v>
+        <v>18.100962</v>
       </c>
       <c r="C145" t="n">
-        <v>23951.0383</v>
+        <v>17632.10096153846</v>
       </c>
       <c r="D145" t="n">
-        <v>23951.03829992139</v>
+        <v>17632.10096153846</v>
       </c>
     </row>
     <row r="146">
@@ -2478,13 +2478,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>0</v>
+        <v>196.19063</v>
       </c>
       <c r="C146" t="n">
-        <v>23750.93382</v>
+        <v>17933.19063301282</v>
       </c>
       <c r="D146" t="n">
-        <v>23750.9338187893</v>
+        <v>17933.19063301282</v>
       </c>
     </row>
     <row r="147">
@@ -2492,13 +2492,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>0</v>
+        <v>1191.463</v>
       </c>
       <c r="C147" t="n">
-        <v>23501.99684</v>
+        <v>18058.46301813792</v>
       </c>
       <c r="D147" t="n">
-        <v>23501.99684013536</v>
+        <v>18058.46301813792</v>
       </c>
     </row>
     <row r="148">
@@ -2506,13 +2506,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>0</v>
+        <v>798.57347</v>
       </c>
       <c r="C148" t="n">
-        <v>23237.6410126</v>
+        <v>18212.57346501572</v>
       </c>
       <c r="D148" t="n">
-        <v>23237.64101257861</v>
+        <v>18212.57346501572</v>
       </c>
     </row>
     <row r="149">
@@ -2520,13 +2520,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>0</v>
+        <v>1324.8246</v>
       </c>
       <c r="C149" t="n">
-        <v>22947.24005</v>
+        <v>18306.82464426101</v>
       </c>
       <c r="D149" t="n">
-        <v>22947.24004874214</v>
+        <v>18306.82464426101</v>
       </c>
     </row>
     <row r="150">
@@ -2534,13 +2534,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>0</v>
+        <v>479.99887</v>
       </c>
       <c r="C150" t="n">
-        <v>22680.39581</v>
+        <v>18489.99887185535</v>
       </c>
       <c r="D150" t="n">
-        <v>22680.39581171384</v>
+        <v>18489.99887185535</v>
       </c>
     </row>
     <row r="151">
@@ -2548,13 +2548,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>0</v>
+        <v>140.55251</v>
       </c>
       <c r="C151" t="n">
-        <v>22490.92277</v>
+        <v>18784.5525112526</v>
       </c>
       <c r="D151" t="n">
-        <v>22490.92276864575</v>
+        <v>18784.5525112526</v>
       </c>
     </row>
     <row r="152">
@@ -2565,10 +2565,10 @@
         <v>0</v>
       </c>
       <c r="C152" t="n">
-        <v>22280.72032</v>
+        <v>18977.09752652337</v>
       </c>
       <c r="D152" t="n">
-        <v>22280.72032200233</v>
+        <v>18977.09752652337</v>
       </c>
     </row>
     <row r="153">
@@ -2579,10 +2579,10 @@
         <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>21996.785611</v>
+        <v>19400.74161023109</v>
       </c>
       <c r="D153" t="n">
-        <v>21996.78561079291</v>
+        <v>19400.74161023109</v>
       </c>
     </row>
     <row r="154">
@@ -2593,10 +2593,10 @@
         <v>0</v>
       </c>
       <c r="C154" t="n">
-        <v>21701.53514</v>
+        <v>19793.2886138486</v>
       </c>
       <c r="D154" t="n">
-        <v>21701.53514111635</v>
+        <v>19793.2886138486</v>
       </c>
     </row>
     <row r="155">
@@ -2607,10 +2607,10 @@
         <v>0</v>
       </c>
       <c r="C155" t="n">
-        <v>21391.89164</v>
+        <v>19883.92158854167</v>
       </c>
       <c r="D155" t="n">
-        <v>21391.8916379717</v>
+        <v>19883.92158854167</v>
       </c>
     </row>
     <row r="156">
@@ -2618,13 +2618,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>0</v>
+        <v>347.76169</v>
       </c>
       <c r="C156" t="n">
-        <v>21194.26117</v>
+        <v>20203.76168509616</v>
       </c>
       <c r="D156" t="n">
-        <v>21194.26116666667</v>
+        <v>20203.76168509616</v>
       </c>
     </row>
     <row r="157">
@@ -2632,13 +2632,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>0</v>
+        <v>964.28381</v>
       </c>
       <c r="C157" t="n">
-        <v>20978.76904</v>
+        <v>20461.28381209936</v>
       </c>
       <c r="D157" t="n">
-        <v>20978.76903891509</v>
+        <v>20461.28381209936</v>
       </c>
     </row>
     <row r="158">
@@ -2646,13 +2646,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>0</v>
+        <v>2022.945</v>
       </c>
       <c r="C158" t="n">
-        <v>20732.061878</v>
+        <v>20601.94501763963</v>
       </c>
       <c r="D158" t="n">
-        <v>20732.06187814465</v>
+        <v>20601.94501763963</v>
       </c>
     </row>
     <row r="159">
@@ -2660,13 +2660,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>0</v>
+        <v>161.85704</v>
       </c>
       <c r="C159" t="n">
-        <v>20440.14284</v>
+        <v>20905.85703839869</v>
       </c>
       <c r="D159" t="n">
-        <v>20440.1428384434</v>
+        <v>20905.85703839869</v>
       </c>
     </row>
     <row r="160">
@@ -2674,13 +2674,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>0</v>
+        <v>1832.5021</v>
       </c>
       <c r="C160" t="n">
-        <v>20188.80954</v>
+        <v>21260.50207107843</v>
       </c>
       <c r="D160" t="n">
-        <v>20188.80954048743</v>
+        <v>21260.50207107843</v>
       </c>
     </row>
     <row r="161">
@@ -2688,13 +2688,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>0</v>
+        <v>2536.4854</v>
       </c>
       <c r="C161" t="n">
-        <v>19928.9404</v>
+        <v>21688.48543714387</v>
       </c>
       <c r="D161" t="n">
-        <v>19928.94039701257</v>
+        <v>21688.48543714387</v>
       </c>
     </row>
     <row r="162">
@@ -2702,13 +2702,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>0</v>
+        <v>1665.0581</v>
       </c>
       <c r="C162" t="n">
-        <v>19683.398747</v>
+        <v>21988.05814703526</v>
       </c>
       <c r="D162" t="n">
-        <v>19683.39874699207</v>
+        <v>21988.05814703526</v>
       </c>
     </row>
     <row r="163">
@@ -2716,13 +2716,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>1251.5535</v>
       </c>
       <c r="C163" t="n">
-        <v>19406.06992</v>
+        <v>22271.5534795673</v>
       </c>
       <c r="D163" t="n">
-        <v>19406.06992413522</v>
+        <v>22271.5534795673</v>
       </c>
     </row>
     <row r="164">
@@ -2730,13 +2730,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>317.14875</v>
+        <v>295.33</v>
       </c>
       <c r="C164" t="n">
-        <v>18888</v>
+        <v>22545.32999599358</v>
       </c>
       <c r="D164" t="n">
-        <v>19205.14875471698</v>
+        <v>22545.32999599358</v>
       </c>
     </row>
     <row r="165">
@@ -2744,13 +2744,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>1112.5593</v>
+        <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>17735</v>
+        <v>22761.029453125</v>
       </c>
       <c r="D165" t="n">
-        <v>18847.55929441824</v>
+        <v>22761.029453125</v>
       </c>
     </row>
     <row r="166">
@@ -2758,13 +2758,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>1468.1616</v>
+        <v>996.50021</v>
       </c>
       <c r="C166" t="n">
-        <v>17118</v>
+        <v>22967.50021233975</v>
       </c>
       <c r="D166" t="n">
-        <v>18586.1616343778</v>
+        <v>22967.50021233975</v>
       </c>
     </row>
     <row r="167">
@@ -2772,13 +2772,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>1350.4556</v>
+        <v>522.80326</v>
       </c>
       <c r="C167" t="n">
-        <v>17010</v>
+        <v>23150.80325520834</v>
       </c>
       <c r="D167" t="n">
-        <v>18360.45561477987</v>
+        <v>23150.80325520834</v>
       </c>
     </row>
     <row r="168">
@@ -2786,13 +2786,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>1688.0967</v>
+        <v>1650.7321</v>
       </c>
       <c r="C168" t="n">
-        <v>16464</v>
+        <v>23340.73211538462</v>
       </c>
       <c r="D168" t="n">
-        <v>18152.09668081761</v>
+        <v>23340.73211538462</v>
       </c>
     </row>
     <row r="169">
@@ -2800,13 +2800,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>1556.109</v>
+        <v>2314.4521</v>
       </c>
       <c r="C169" t="n">
-        <v>16359</v>
+        <v>23574.45206730768</v>
       </c>
       <c r="D169" t="n">
-        <v>17915.10903380503</v>
+        <v>23574.45206730768</v>
       </c>
     </row>
     <row r="170">
@@ -2814,13 +2814,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>1429.9783</v>
+        <v>253.81375</v>
       </c>
       <c r="C170" t="n">
-        <v>16254</v>
+        <v>23908.81374726836</v>
       </c>
       <c r="D170" t="n">
-        <v>17683.97827555031</v>
+        <v>23908.81374726836</v>
       </c>
     </row>
     <row r="171">
@@ -2828,13 +2828,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>1747.6441</v>
+        <v>2059.8638</v>
       </c>
       <c r="C171" t="n">
-        <v>15708</v>
+        <v>24257.8637900641</v>
       </c>
       <c r="D171" t="n">
-        <v>17455.64405542453</v>
+        <v>24257.8637900641</v>
       </c>
     </row>
     <row r="172">
@@ -2842,13 +2842,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>2112.5173</v>
+        <v>2197.0772</v>
       </c>
       <c r="C172" t="n">
-        <v>15150</v>
+        <v>24635.07724559295</v>
       </c>
       <c r="D172" t="n">
-        <v>17262.51730089775</v>
+        <v>24635.07724559295</v>
       </c>
     </row>
     <row r="173">
@@ -2856,13 +2856,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>1992.5484</v>
+        <v>1169.3459</v>
       </c>
       <c r="C173" t="n">
-        <v>15084</v>
+        <v>24951.34585336538</v>
       </c>
       <c r="D173" t="n">
-        <v>17076.54844968553</v>
+        <v>24951.34585336538</v>
       </c>
     </row>
     <row r="174">
@@ -2870,13 +2870,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>1834.1826</v>
+        <v>2984.7478</v>
       </c>
       <c r="C174" t="n">
-        <v>14968</v>
+        <v>25239.74780649039</v>
       </c>
       <c r="D174" t="n">
-        <v>16802.18262853774</v>
+        <v>25239.74780649039</v>
       </c>
     </row>
     <row r="175">
@@ -2884,13 +2884,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>1653.2798</v>
+        <v>2550.1099</v>
       </c>
       <c r="C175" t="n">
-        <v>14869</v>
+        <v>25610.10985176282</v>
       </c>
       <c r="D175" t="n">
-        <v>16522.27982507862</v>
+        <v>25610.10985176282</v>
       </c>
     </row>
     <row r="176">
@@ -2898,13 +2898,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>1477.6773</v>
+        <v>2080.0517</v>
       </c>
       <c r="C176" t="n">
-        <v>14775</v>
+        <v>25957.05165865384</v>
       </c>
       <c r="D176" t="n">
-        <v>16252.67726768868</v>
+        <v>25957.05165865384</v>
       </c>
     </row>
     <row r="177">
@@ -2912,13 +2912,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>1327.7409</v>
+        <v>984.29528</v>
       </c>
       <c r="C177" t="n">
-        <v>14676</v>
+        <v>26155.29527844552</v>
       </c>
       <c r="D177" t="n">
-        <v>16003.74085062893</v>
+        <v>26155.29527844552</v>
       </c>
     </row>
     <row r="178">
@@ -2926,13 +2926,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>735.19286</v>
+        <v>3381.0316</v>
       </c>
       <c r="C178" t="n">
-        <v>15014</v>
+        <v>26288.03159054487</v>
       </c>
       <c r="D178" t="n">
-        <v>15749.19285776647</v>
+        <v>26288.03159054487</v>
       </c>
     </row>
     <row r="179">
@@ -2940,13 +2940,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>576.31647</v>
+        <v>2221.6083</v>
       </c>
       <c r="C179" t="n">
-        <v>14912</v>
+        <v>26448.60825320513</v>
       </c>
       <c r="D179" t="n">
-        <v>15488.31647051887</v>
+        <v>26448.60825320513</v>
       </c>
     </row>
     <row r="180">
@@ -2954,13 +2954,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>0</v>
+        <v>2319.2375</v>
       </c>
       <c r="C180" t="n">
-        <v>15243.73338</v>
+        <v>26584.23749399038</v>
       </c>
       <c r="D180" t="n">
-        <v>15243.73338286163</v>
+        <v>26584.23749399038</v>
       </c>
     </row>
     <row r="181">
@@ -2968,13 +2968,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>706.8827</v>
+        <v>559.1006599999999</v>
       </c>
       <c r="C181" t="n">
-        <v>14307</v>
+        <v>26772.10066297381</v>
       </c>
       <c r="D181" t="n">
-        <v>15013.88269772013</v>
+        <v>26772.10066297381</v>
       </c>
     </row>
     <row r="182">
@@ -2982,13 +2982,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>560.79414</v>
+        <v>24.747644</v>
       </c>
       <c r="C182" t="n">
-        <v>14224</v>
+        <v>26951.74764371931</v>
       </c>
       <c r="D182" t="n">
-        <v>14784.79413915094</v>
+        <v>26951.74764371931</v>
       </c>
     </row>
     <row r="183">
@@ -2996,13 +2996,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>364.58206</v>
+        <v>0</v>
       </c>
       <c r="C183" t="n">
-        <v>14092</v>
+        <v>27088.25736352076</v>
       </c>
       <c r="D183" t="n">
-        <v>14456.58206446541</v>
+        <v>27088.25736352076</v>
       </c>
     </row>
     <row r="184">
@@ -3010,13 +3010,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>218.61124</v>
+        <v>785.51613</v>
       </c>
       <c r="C184" t="n">
-        <v>14024</v>
+        <v>27251.51612780449</v>
       </c>
       <c r="D184" t="n">
-        <v>14242.61124213836</v>
+        <v>27251.51612780449</v>
       </c>
     </row>
     <row r="185">
@@ -3024,13 +3024,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>102.91308</v>
+        <v>0</v>
       </c>
       <c r="C185" t="n">
-        <v>13942</v>
+        <v>27484.96915891513</v>
       </c>
       <c r="D185" t="n">
-        <v>14044.91307586478</v>
+        <v>27484.96915891513</v>
       </c>
     </row>
     <row r="186">
@@ -3038,13 +3038,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>361.40902</v>
+        <v>3002.8409</v>
       </c>
       <c r="C186" t="n">
-        <v>13455</v>
+        <v>27718.84094273685</v>
       </c>
       <c r="D186" t="n">
-        <v>13816.40902083333</v>
+        <v>27718.84094273685</v>
       </c>
     </row>
     <row r="187">
@@ -3052,13 +3052,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>242.05846</v>
+        <v>0</v>
       </c>
       <c r="C187" t="n">
-        <v>13376</v>
+        <v>28167.07364787582</v>
       </c>
       <c r="D187" t="n">
-        <v>13618.05845676101</v>
+        <v>28167.07364787582</v>
       </c>
     </row>
     <row r="188">
@@ -3069,10 +3069,10 @@
         <v>0</v>
       </c>
       <c r="C188" t="n">
-        <v>13359.758219</v>
+        <v>28152.66965435314</v>
       </c>
       <c r="D188" t="n">
-        <v>13359.75821894655</v>
+        <v>28152.66965435314</v>
       </c>
     </row>
     <row r="189">
@@ -3080,13 +3080,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>0</v>
+        <v>61.018337</v>
       </c>
       <c r="C189" t="n">
-        <v>13187.20545</v>
+        <v>28343.01833744519</v>
       </c>
       <c r="D189" t="n">
-        <v>13187.20544850629</v>
+        <v>28343.01833744519</v>
       </c>
     </row>
     <row r="190">
@@ -3094,13 +3094,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>0</v>
+        <v>297.01969</v>
       </c>
       <c r="C190" t="n">
-        <v>13029.78631</v>
+        <v>28557.01969150641</v>
       </c>
       <c r="D190" t="n">
-        <v>13029.7863114233</v>
+        <v>28557.01969150641</v>
       </c>
     </row>
     <row r="191">
@@ -3111,10 +3111,10 @@
         <v>0</v>
       </c>
       <c r="C191" t="n">
-        <v>12816.49661</v>
+        <v>28655.61617788461</v>
       </c>
       <c r="D191" t="n">
-        <v>12816.49660997744</v>
+        <v>28655.61617788461</v>
       </c>
     </row>
     <row r="192">
@@ -3122,13 +3122,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>0</v>
+        <v>662.80043</v>
       </c>
       <c r="C192" t="n">
-        <v>12634.53444409</v>
+        <v>28878.8004286859</v>
       </c>
       <c r="D192" t="n">
-        <v>12634.53444409363</v>
+        <v>28878.8004286859</v>
       </c>
     </row>
     <row r="193">
@@ -3136,13 +3136,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>0</v>
+        <v>2170.4633</v>
       </c>
       <c r="C193" t="n">
-        <v>12382.73598</v>
+        <v>29179.46331530449</v>
       </c>
       <c r="D193" t="n">
-        <v>12382.73597995283</v>
+        <v>29179.46331530449</v>
       </c>
     </row>
     <row r="194">
@@ -3150,13 +3150,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>79.426224</v>
+        <v>1957.091</v>
       </c>
       <c r="C194" t="n">
-        <v>12092</v>
+        <v>29447.09103165064</v>
       </c>
       <c r="D194" t="n">
-        <v>12171.42622366352</v>
+        <v>29447.09103165064</v>
       </c>
     </row>
     <row r="195">
@@ -3164,13 +3164,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>0</v>
+        <v>2193.1424</v>
       </c>
       <c r="C195" t="n">
-        <v>12007.72747</v>
+        <v>29701.14236177885</v>
       </c>
       <c r="D195" t="n">
-        <v>12007.72746540881</v>
+        <v>29701.14236177885</v>
       </c>
     </row>
     <row r="196">
@@ -3178,13 +3178,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>0</v>
+        <v>1407.0091</v>
       </c>
       <c r="C196" t="n">
-        <v>11798.59318</v>
+        <v>29967.00909655449</v>
       </c>
       <c r="D196" t="n">
-        <v>11798.59317774132</v>
+        <v>29967.00909655449</v>
       </c>
     </row>
     <row r="197">
@@ -3192,13 +3192,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>0</v>
+        <v>2786.0634</v>
       </c>
       <c r="C197" t="n">
-        <v>11391.70587</v>
+        <v>30174.06342748398</v>
       </c>
       <c r="D197" t="n">
-        <v>11391.70586778846</v>
+        <v>30174.06342748398</v>
       </c>
     </row>
     <row r="198">
@@ -3206,13 +3206,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>0</v>
+        <v>2397.5234</v>
       </c>
       <c r="C198" t="n">
-        <v>11210.63842</v>
+        <v>30328.52344350961</v>
       </c>
       <c r="D198" t="n">
-        <v>11210.63841746795</v>
+        <v>30328.52344350961</v>
       </c>
     </row>
     <row r="199">
@@ -3220,13 +3220,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>0</v>
+        <v>2458.1674</v>
       </c>
       <c r="C199" t="n">
-        <v>11101.3415</v>
+        <v>30474.16743589744</v>
       </c>
       <c r="D199" t="n">
-        <v>11101.34149679487</v>
+        <v>30474.16743589744</v>
       </c>
     </row>
     <row r="200">
@@ -3234,13 +3234,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>0</v>
+        <v>2816.1311</v>
       </c>
       <c r="C200" t="n">
-        <v>10985.670714</v>
+        <v>30694.13110833149</v>
       </c>
       <c r="D200" t="n">
-        <v>10985.67071434295</v>
+        <v>30694.13110833149</v>
       </c>
     </row>
     <row r="201">
@@ -3248,13 +3248,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>0</v>
+        <v>4389.9489</v>
       </c>
       <c r="C201" t="n">
-        <v>10958.90303327</v>
+        <v>30909.94885186511</v>
       </c>
       <c r="D201" t="n">
-        <v>10958.90303326901</v>
+        <v>30909.94885186511</v>
       </c>
     </row>
     <row r="202">
@@ -3262,13 +3262,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>0</v>
+        <v>2197.5902</v>
       </c>
       <c r="C202" t="n">
-        <v>10768.82746</v>
+        <v>31184.59024042724</v>
       </c>
       <c r="D202" t="n">
-        <v>10768.82746187107</v>
+        <v>31184.59024042724</v>
       </c>
     </row>
     <row r="203">
@@ -3276,13 +3276,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>0</v>
+        <v>4156.1415</v>
       </c>
       <c r="C203" t="n">
-        <v>10536.093677</v>
+        <v>31411.14150456979</v>
       </c>
       <c r="D203" t="n">
-        <v>10536.09367688679</v>
+        <v>31411.14150456979</v>
       </c>
     </row>
     <row r="204">
@@ -3290,13 +3290,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>0</v>
+        <v>3347.6735</v>
       </c>
       <c r="C204" t="n">
-        <v>10320.0704</v>
+        <v>31647.67350761218</v>
       </c>
       <c r="D204" t="n">
-        <v>10320.07039540607</v>
+        <v>31647.67350761218</v>
       </c>
     </row>
     <row r="205">
@@ -3304,13 +3304,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>0</v>
+        <v>5438.4819</v>
       </c>
       <c r="C205" t="n">
-        <v>10064.68496</v>
+        <v>31883.48186311432</v>
       </c>
       <c r="D205" t="n">
-        <v>10064.68495794025</v>
+        <v>31883.48186311432</v>
       </c>
     </row>
     <row r="206">
@@ -3318,13 +3318,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>0</v>
+        <v>5784.3345</v>
       </c>
       <c r="C206" t="n">
-        <v>9917.2962732</v>
+        <v>32202.33453494324</v>
       </c>
       <c r="D206" t="n">
-        <v>9917.296273191823</v>
+        <v>32202.33453494324</v>
       </c>
     </row>
     <row r="207">
@@ -3332,13 +3332,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>0</v>
+        <v>5445.9708</v>
       </c>
       <c r="C207" t="n">
-        <v>9788.94605</v>
+        <v>32516.97075520832</v>
       </c>
       <c r="D207" t="n">
-        <v>9788.946051100625</v>
+        <v>32516.97075520832</v>
       </c>
     </row>
     <row r="208">
@@ -3346,13 +3346,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>0</v>
+        <v>6997.144</v>
       </c>
       <c r="C208" t="n">
-        <v>9624.253909999999</v>
+        <v>32789.14399439102</v>
       </c>
       <c r="D208" t="n">
-        <v>9624.253906053456</v>
+        <v>32789.14399439102</v>
       </c>
     </row>
     <row r="209">
@@ -3360,13 +3360,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>0</v>
+        <v>5537.6898</v>
       </c>
       <c r="C209" t="n">
-        <v>9415.000284600001</v>
+        <v>33025.68981370194</v>
       </c>
       <c r="D209" t="n">
-        <v>9415.000284591193</v>
+        <v>33025.68981370194</v>
       </c>
     </row>
     <row r="210">
@@ -3374,13 +3374,13 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>0</v>
+        <v>6933.544</v>
       </c>
       <c r="C210" t="n">
-        <v>9214.38674</v>
+        <v>33306.54397035256</v>
       </c>
       <c r="D210" t="n">
-        <v>9214.386738600631</v>
+        <v>33306.54397035256</v>
       </c>
     </row>
     <row r="211">
@@ -3388,13 +3388,13 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>0</v>
+        <v>4985.9588</v>
       </c>
       <c r="C211" t="n">
-        <v>9015.176786</v>
+        <v>33593.95882812499</v>
       </c>
       <c r="D211" t="n">
-        <v>9015.176786163525</v>
+        <v>33593.95882812499</v>
       </c>
     </row>
     <row r="212">
@@ -3402,13 +3402,13 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>4050.1775</v>
+        <v>5828.7886</v>
       </c>
       <c r="C212" t="n">
-        <v>4797</v>
+        <v>33866.78864608939</v>
       </c>
       <c r="D212" t="n">
-        <v>8847.177458519531</v>
+        <v>33866.78864608939</v>
       </c>
     </row>
     <row r="213">
@@ -3416,13 +3416,13 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>3914.6682</v>
+        <v>7117.6107</v>
       </c>
       <c r="C213" t="n">
-        <v>4771</v>
+        <v>34050.61068709936</v>
       </c>
       <c r="D213" t="n">
-        <v>8685.668196147801</v>
+        <v>34050.61068709936</v>
       </c>
     </row>
     <row r="214">
@@ -3430,13 +3430,13 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>3748.6304</v>
+        <v>10329.615</v>
       </c>
       <c r="C214" t="n">
-        <v>4758</v>
+        <v>34195.61492588141</v>
       </c>
       <c r="D214" t="n">
-        <v>8506.630394261007</v>
+        <v>34195.61492588141</v>
       </c>
     </row>
     <row r="215">
@@ -3444,13 +3444,13 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>3211.4248</v>
+        <v>7136.7555</v>
       </c>
       <c r="C215" t="n">
-        <v>5096</v>
+        <v>34396.75546274038</v>
       </c>
       <c r="D215" t="n">
-        <v>8307.424791273585</v>
+        <v>34396.75546274038</v>
       </c>
     </row>
     <row r="216">
@@ -3458,13 +3458,13 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>2670.7734</v>
+        <v>7672.3563</v>
       </c>
       <c r="C216" t="n">
-        <v>5430</v>
+        <v>34559.356328125</v>
       </c>
       <c r="D216" t="n">
-        <v>8100.773350628932</v>
+        <v>34559.356328125</v>
       </c>
     </row>
     <row r="217">
@@ -3472,13 +3472,13 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>3251.3396</v>
+        <v>10257.421</v>
       </c>
       <c r="C217" t="n">
-        <v>4680</v>
+        <v>34709.42095953525</v>
       </c>
       <c r="D217" t="n">
-        <v>7931.339562893084</v>
+        <v>34709.42095953525</v>
       </c>
     </row>
     <row r="218">
@@ -3486,13 +3486,13 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>3458.273</v>
+        <v>8696.911700000001</v>
       </c>
       <c r="C218" t="n">
-        <v>4308</v>
+        <v>34853.91169270833</v>
       </c>
       <c r="D218" t="n">
-        <v>7766.273043238992</v>
+        <v>34853.91169270833</v>
       </c>
     </row>
     <row r="219">
@@ -3500,13 +3500,13 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>3031.3775</v>
+        <v>10159.827</v>
       </c>
       <c r="C219" t="n">
-        <v>4654</v>
+        <v>35026.82745192308</v>
       </c>
       <c r="D219" t="n">
-        <v>7685.37751611635</v>
+        <v>35026.82745192308</v>
       </c>
     </row>
     <row r="220">
@@ -3514,13 +3514,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>2946.0649</v>
+        <v>11885.369</v>
       </c>
       <c r="C220" t="n">
-        <v>4641</v>
+        <v>35145.36916065705</v>
       </c>
       <c r="D220" t="n">
-        <v>7587.064899764151</v>
+        <v>35145.36916065705</v>
       </c>
     </row>
     <row r="221">
@@ -3528,13 +3528,13 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>2813.9063</v>
+        <v>7941.1995</v>
       </c>
       <c r="C221" t="n">
-        <v>4628</v>
+        <v>35239.19948116988</v>
       </c>
       <c r="D221" t="n">
-        <v>7441.906280660377</v>
+        <v>35239.19948116988</v>
       </c>
     </row>
     <row r="222">
@@ -3542,13 +3542,13 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>2367.9024</v>
+        <v>10757.654</v>
       </c>
       <c r="C222" t="n">
-        <v>4970</v>
+        <v>35365.65420230264</v>
       </c>
       <c r="D222" t="n">
-        <v>7337.902413522012</v>
+        <v>35365.65420230264</v>
       </c>
     </row>
     <row r="223">
@@ -3556,13 +3556,13 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>2287.6321</v>
+        <v>8279.3405</v>
       </c>
       <c r="C223" t="n">
-        <v>4956</v>
+        <v>35527.34048677883</v>
       </c>
       <c r="D223" t="n">
-        <v>7243.632119103774</v>
+        <v>35527.34048677883</v>
       </c>
     </row>
     <row r="224">
@@ -3570,13 +3570,13 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>2627.994</v>
+        <v>12081.479</v>
       </c>
       <c r="C224" t="n">
-        <v>4602</v>
+        <v>35627.47871794872</v>
       </c>
       <c r="D224" t="n">
-        <v>7229.994032232705</v>
+        <v>35627.47871794872</v>
       </c>
     </row>
     <row r="225">
@@ -3584,13 +3584,13 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>2139.5439</v>
+        <v>12460.883</v>
       </c>
       <c r="C225" t="n">
-        <v>4942</v>
+        <v>35676.88260817308</v>
       </c>
       <c r="D225" t="n">
-        <v>7081.543852594338</v>
+        <v>35676.88260817308</v>
       </c>
     </row>
     <row r="226">
@@ -3598,13 +3598,13 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>2014.237</v>
+        <v>11693.586</v>
       </c>
       <c r="C226" t="n">
-        <v>4928</v>
+        <v>35648.58604366988</v>
       </c>
       <c r="D226" t="n">
-        <v>6942.236983359538</v>
+        <v>35648.58604366988</v>
       </c>
     </row>
     <row r="227">
@@ -3612,13 +3612,13 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>1205.4644</v>
+        <v>10641.074</v>
       </c>
       <c r="C227" t="n">
-        <v>5600</v>
+        <v>35658.07391826923</v>
       </c>
       <c r="D227" t="n">
-        <v>6805.464374647029</v>
+        <v>35658.07391826923</v>
       </c>
     </row>
     <row r="228">
@@ -3626,13 +3626,13 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>1450.8604</v>
+        <v>9040.124299999999</v>
       </c>
       <c r="C228" t="n">
-        <v>5250</v>
+        <v>35754.12434695513</v>
       </c>
       <c r="D228" t="n">
-        <v>6700.860354166667</v>
+        <v>35754.12434695513</v>
       </c>
     </row>
     <row r="229">
@@ -3640,13 +3640,13 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>1338.9441</v>
+        <v>10472.28</v>
       </c>
       <c r="C229" t="n">
-        <v>5235</v>
+        <v>35892.28002003206</v>
       </c>
       <c r="D229" t="n">
-        <v>6573.944079009435</v>
+        <v>35892.28002003206</v>
       </c>
     </row>
     <row r="230">
@@ -3654,13 +3654,13 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>1238.3999</v>
+        <v>9954.7407</v>
       </c>
       <c r="C230" t="n">
-        <v>5220</v>
+        <v>36009.74071113782</v>
       </c>
       <c r="D230" t="n">
-        <v>6458.399885220126</v>
+        <v>36009.74071113782</v>
       </c>
     </row>
     <row r="231">
@@ -3668,13 +3668,13 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>1139.0089</v>
+        <v>10717.163</v>
       </c>
       <c r="C231" t="n">
-        <v>5205</v>
+        <v>36109.16329126601</v>
       </c>
       <c r="D231" t="n">
-        <v>6344.008862814465</v>
+        <v>36109.16329126601</v>
       </c>
     </row>
     <row r="232">
@@ -3682,13 +3682,13 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>760.41362</v>
+        <v>9468.363600000001</v>
       </c>
       <c r="C232" t="n">
-        <v>5536</v>
+        <v>36132.36359775641</v>
       </c>
       <c r="D232" t="n">
-        <v>6296.413618823</v>
+        <v>36132.36359775641</v>
       </c>
     </row>
     <row r="233">
@@ -3696,13 +3696,13 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>1399.8849</v>
+        <v>13047.413</v>
       </c>
       <c r="C233" t="n">
-        <v>4844</v>
+        <v>36198.41312788597</v>
       </c>
       <c r="D233" t="n">
-        <v>6243.884900157234</v>
+        <v>36198.41312788597</v>
       </c>
     </row>
     <row r="234">
@@ -3710,13 +3710,13 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>1014.6498</v>
+        <v>9790.1245</v>
       </c>
       <c r="C234" t="n">
-        <v>5175</v>
+        <v>36317.12445713141</v>
       </c>
       <c r="D234" t="n">
-        <v>6189.6498125</v>
+        <v>36317.12445713141</v>
       </c>
     </row>
     <row r="235">
@@ -3724,13 +3724,13 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>937.09501</v>
+        <v>11496.652</v>
       </c>
       <c r="C235" t="n">
-        <v>5160</v>
+        <v>36334.65170673076</v>
       </c>
       <c r="D235" t="n">
-        <v>6097.095009040882</v>
+        <v>36334.65170673076</v>
       </c>
     </row>
     <row r="236">
@@ -3738,13 +3738,13 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>1173.3838</v>
+        <v>9746.6168</v>
       </c>
       <c r="C236" t="n">
-        <v>4802</v>
+        <v>36360.61684294872</v>
       </c>
       <c r="D236" t="n">
-        <v>5975.383763891767</v>
+        <v>36360.61684294872</v>
       </c>
     </row>
     <row r="237">
@@ -3752,13 +3752,13 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>388.87676</v>
+        <v>8695.4557</v>
       </c>
       <c r="C237" t="n">
-        <v>5488</v>
+        <v>36446.4557391827</v>
       </c>
       <c r="D237" t="n">
-        <v>5876.876755896226</v>
+        <v>36446.4557391827</v>
       </c>
     </row>
     <row r="238">
@@ -3766,13 +3766,13 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>337.66266</v>
+        <v>11092.756</v>
       </c>
       <c r="C238" t="n">
-        <v>5472</v>
+        <v>36521.75556690705</v>
       </c>
       <c r="D238" t="n">
-        <v>5809.662657232706</v>
+        <v>36521.75556690705</v>
       </c>
     </row>
     <row r="239">
@@ -3780,13 +3780,13 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>0</v>
+        <v>11903.181</v>
       </c>
       <c r="C239" t="n">
-        <v>5740.76546</v>
+        <v>36510.18084535256</v>
       </c>
       <c r="D239" t="n">
-        <v>5740.765462657235</v>
+        <v>36510.18084535256</v>
       </c>
     </row>
     <row r="240">
@@ -3794,13 +3794,13 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>0</v>
+        <v>10555.119</v>
       </c>
       <c r="C240" t="n">
-        <v>5736.20427</v>
+        <v>36508.11888822116</v>
       </c>
       <c r="D240" t="n">
-        <v>5736.204265330188</v>
+        <v>36508.11888822116</v>
       </c>
     </row>
     <row r="241">
@@ -3808,13 +3808,13 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>0</v>
+        <v>11499.762</v>
       </c>
       <c r="C241" t="n">
-        <v>5705.18962</v>
+        <v>36517.7624539263</v>
       </c>
       <c r="D241" t="n">
-        <v>5705.189619103774</v>
+        <v>36517.7624539263</v>
       </c>
     </row>
     <row r="242">
@@ -3822,13 +3822,13 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>0</v>
+        <v>9895.041499999999</v>
       </c>
       <c r="C242" t="n">
-        <v>5631.16217</v>
+        <v>36397.04149085595</v>
       </c>
       <c r="D242" t="n">
-        <v>5631.16216509434</v>
+        <v>36397.04149085595</v>
       </c>
     </row>
     <row r="243">
@@ -3836,13 +3836,13 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>0</v>
+        <v>11994.39</v>
       </c>
       <c r="C243" t="n">
-        <v>5561.64732</v>
+        <v>36396.38950120191</v>
       </c>
       <c r="D243" t="n">
-        <v>5561.647323113209</v>
+        <v>36396.38950120191</v>
       </c>
     </row>
     <row r="244">
@@ -3850,13 +3850,13 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>0</v>
+        <v>8633.2754</v>
       </c>
       <c r="C244" t="n">
-        <v>5496.154135</v>
+        <v>36409.27540865384</v>
       </c>
       <c r="D244" t="n">
-        <v>5496.154134827043</v>
+        <v>36409.27540865384</v>
       </c>
     </row>
     <row r="245">
@@ -3864,13 +3864,13 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>0</v>
+        <v>8532.893599999999</v>
       </c>
       <c r="C245" t="n">
-        <v>5446.217637</v>
+        <v>36420.89359775641</v>
       </c>
       <c r="D245" t="n">
-        <v>5446.217636792454</v>
+        <v>36420.89359775641</v>
       </c>
     </row>
     <row r="246">
@@ -3878,13 +3878,13 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>0</v>
+        <v>9808.319100000001</v>
       </c>
       <c r="C246" t="n">
-        <v>5368.08079</v>
+        <v>36422.31907114241</v>
       </c>
       <c r="D246" t="n">
-        <v>5368.080786556607</v>
+        <v>36422.31907114241</v>
       </c>
     </row>
     <row r="247">
@@ -3892,13 +3892,13 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>0</v>
+        <v>8081.593</v>
       </c>
       <c r="C247" t="n">
-        <v>5326.66736</v>
+        <v>36382.5930048077</v>
       </c>
       <c r="D247" t="n">
-        <v>5326.667361242139</v>
+        <v>36382.5930048077</v>
       </c>
     </row>
     <row r="248">
@@ -3906,13 +3906,13 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>0</v>
+        <v>7903.7686</v>
       </c>
       <c r="C248" t="n">
-        <v>5319.39367</v>
+        <v>36341.76864182691</v>
       </c>
       <c r="D248" t="n">
-        <v>5319.393665094341</v>
+        <v>36341.76864182691</v>
       </c>
     </row>
     <row r="249">
@@ -3920,13 +3920,13 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>0</v>
+        <v>9654.755499999999</v>
       </c>
       <c r="C249" t="n">
-        <v>5267.98786</v>
+        <v>36292.75550881412</v>
       </c>
       <c r="D249" t="n">
-        <v>5267.987859669812</v>
+        <v>36292.75550881412</v>
       </c>
     </row>
     <row r="250">
@@ -3934,13 +3934,13 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>0</v>
+        <v>10208.369</v>
       </c>
       <c r="C250" t="n">
-        <v>5257.75858</v>
+        <v>36212.36934094551</v>
       </c>
       <c r="D250" t="n">
-        <v>5257.758583333334</v>
+        <v>36212.36934094551</v>
       </c>
     </row>
     <row r="251">
@@ -3948,13 +3948,13 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>0</v>
+        <v>9513.1574</v>
       </c>
       <c r="C251" t="n">
-        <v>5181.53074</v>
+        <v>36177.1574178686</v>
       </c>
       <c r="D251" t="n">
-        <v>5181.530741352201</v>
+        <v>36177.1574178686</v>
       </c>
     </row>
     <row r="252">
@@ -3962,13 +3962,13 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>0</v>
+        <v>9189.8372</v>
       </c>
       <c r="C252" t="n">
-        <v>5170.69474</v>
+        <v>36091.83719150641</v>
       </c>
       <c r="D252" t="n">
-        <v>5170.694737421384</v>
+        <v>36091.83719150641</v>
       </c>
     </row>
     <row r="253">
@@ -3976,13 +3976,13 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>414.85379</v>
+        <v>8737.9923</v>
       </c>
       <c r="C253" t="n">
-        <v>4718</v>
+        <v>36061.99225761218</v>
       </c>
       <c r="D253" t="n">
-        <v>5132.853791666666</v>
+        <v>36061.99225761218</v>
       </c>
     </row>
     <row r="254">
@@ -3990,13 +3990,13 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>0</v>
+        <v>10222.069</v>
       </c>
       <c r="C254" t="n">
-        <v>5065.468793</v>
+        <v>35852.06898191822</v>
       </c>
       <c r="D254" t="n">
-        <v>5065.468793238995</v>
+        <v>35852.06898191822</v>
       </c>
     </row>
     <row r="255">
@@ -4004,13 +4004,13 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>0</v>
+        <v>11427.291</v>
       </c>
       <c r="C255" t="n">
-        <v>4994.89068</v>
+        <v>35705.29105916098</v>
       </c>
       <c r="D255" t="n">
-        <v>4994.890676493711</v>
+        <v>35705.29105916098</v>
       </c>
     </row>
     <row r="256">
@@ -4018,13 +4018,13 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>0</v>
+        <v>7555.0237</v>
       </c>
       <c r="C256" t="n">
-        <v>4932.13147</v>
+        <v>35563.02368907233</v>
       </c>
       <c r="D256" t="n">
-        <v>4932.131473875182</v>
+        <v>35563.02368907233</v>
       </c>
     </row>
     <row r="257">
@@ -4032,13 +4032,13 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>201.61196</v>
+        <v>6255.7413</v>
       </c>
       <c r="C257" t="n">
-        <v>4676</v>
+        <v>35329.7413345126</v>
       </c>
       <c r="D257" t="n">
-        <v>4877.611961477988</v>
+        <v>35329.7413345126</v>
       </c>
     </row>
     <row r="258">
@@ -4046,13 +4046,13 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>141.93055</v>
+        <v>7841.1826</v>
       </c>
       <c r="C258" t="n">
-        <v>4676</v>
+        <v>35044.18261202831</v>
       </c>
       <c r="D258" t="n">
-        <v>4817.930554245283</v>
+        <v>35044.18261202831</v>
       </c>
     </row>
     <row r="259">
@@ -4060,13 +4060,13 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>0</v>
+        <v>7362.6999</v>
       </c>
       <c r="C259" t="n">
-        <v>4746.558506</v>
+        <v>34785.69986242138</v>
       </c>
       <c r="D259" t="n">
-        <v>4746.558505896224</v>
+        <v>34785.69986242138</v>
       </c>
     </row>
     <row r="260">
@@ -4074,13 +4074,13 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>0</v>
+        <v>6080.6031</v>
       </c>
       <c r="C260" t="n">
-        <v>4707.732687</v>
+        <v>34578.60311124213</v>
       </c>
       <c r="D260" t="n">
-        <v>4707.732686879346</v>
+        <v>34578.60311124213</v>
       </c>
     </row>
     <row r="261">
@@ -4088,13 +4088,13 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>31.03284</v>
+        <v>6276.035</v>
       </c>
       <c r="C261" t="n">
-        <v>4662</v>
+        <v>34356.03501179246</v>
       </c>
       <c r="D261" t="n">
-        <v>4693.032840305363</v>
+        <v>34356.03501179246</v>
       </c>
     </row>
     <row r="262">
@@ -4102,13 +4102,13 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>368.30006</v>
+        <v>6179.2064</v>
       </c>
       <c r="C262" t="n">
-        <v>4329</v>
+        <v>34167.2064308176</v>
       </c>
       <c r="D262" t="n">
-        <v>4697.300057389938</v>
+        <v>34167.2064308176</v>
       </c>
     </row>
     <row r="263">
@@ -4116,13 +4116,13 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>94.199878</v>
+        <v>6196.722</v>
       </c>
       <c r="C263" t="n">
-        <v>4676</v>
+        <v>33806.72195286372</v>
       </c>
       <c r="D263" t="n">
-        <v>4770.199878155278</v>
+        <v>33806.72195286372</v>
       </c>
     </row>
     <row r="264">
@@ -4130,13 +4130,13 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>779.07265</v>
+        <v>4842.2691</v>
       </c>
       <c r="C264" t="n">
-        <v>4008</v>
+        <v>33537.26905048075</v>
       </c>
       <c r="D264" t="n">
-        <v>4787.072652515722</v>
+        <v>33537.26905048075</v>
       </c>
     </row>
     <row r="265">
@@ -4144,13 +4144,13 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>1094.3862</v>
+        <v>5911.4097</v>
       </c>
       <c r="C265" t="n">
-        <v>3663</v>
+        <v>33457.40972091195</v>
       </c>
       <c r="D265" t="n">
-        <v>4757.386219732704</v>
+        <v>33457.40972091195</v>
       </c>
     </row>
     <row r="266">
@@ -4158,13 +4158,13 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>452.22833</v>
+        <v>5016.5142</v>
       </c>
       <c r="C266" t="n">
-        <v>4342</v>
+        <v>33192.51417256289</v>
       </c>
       <c r="D266" t="n">
-        <v>4794.228326797434</v>
+        <v>33192.51417256289</v>
       </c>
     </row>
     <row r="267">
@@ -4172,13 +4172,13 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>525.1159699999999</v>
+        <v>4808.236</v>
       </c>
       <c r="C267" t="n">
-        <v>4342</v>
+        <v>32927.23595125786</v>
       </c>
       <c r="D267" t="n">
-        <v>4867.115969150642</v>
+        <v>32927.23595125786</v>
       </c>
     </row>
     <row r="268">
@@ -4186,13 +4186,13 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>288.26374</v>
+        <v>6257.5156</v>
       </c>
       <c r="C268" t="n">
-        <v>4690</v>
+        <v>32700.51564815765</v>
       </c>
       <c r="D268" t="n">
-        <v>4978.263744582637</v>
+        <v>32700.51564815765</v>
       </c>
     </row>
     <row r="269">
@@ -4200,13 +4200,13 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>998.08333</v>
+        <v>6038.4256</v>
       </c>
       <c r="C269" t="n">
-        <v>4032</v>
+        <v>32482.4255797956</v>
       </c>
       <c r="D269" t="n">
-        <v>5030.083334535257</v>
+        <v>32482.4255797956</v>
       </c>
     </row>
     <row r="270">
@@ -4214,13 +4214,13 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>1012.2197</v>
+        <v>5881.7573</v>
       </c>
       <c r="C270" t="n">
-        <v>4032</v>
+        <v>32226.75729092878</v>
       </c>
       <c r="D270" t="n">
-        <v>5044.219734375001</v>
+        <v>32226.75729092878</v>
       </c>
     </row>
     <row r="271">
@@ -4228,13 +4228,13 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>1320.3993</v>
+        <v>4335.5544</v>
       </c>
       <c r="C271" t="n">
-        <v>3685</v>
+        <v>31960.55436517296</v>
       </c>
       <c r="D271" t="n">
-        <v>5005.399262019231</v>
+        <v>31960.55436517296</v>
       </c>
     </row>
     <row r="272">
@@ -4242,13 +4242,13 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>1568.6839</v>
+        <v>3352.9595</v>
       </c>
       <c r="C272" t="n">
-        <v>3350</v>
+        <v>31652.95947720126</v>
       </c>
       <c r="D272" t="n">
-        <v>4918.683939640796</v>
+        <v>31652.95947720126</v>
       </c>
     </row>
     <row r="273">
@@ -4256,13 +4256,13 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>888.32039</v>
+        <v>4144.6293</v>
       </c>
       <c r="C273" t="n">
-        <v>4020</v>
+        <v>31399.6293081761</v>
       </c>
       <c r="D273" t="n">
-        <v>4908.320393867924</v>
+        <v>31399.6293081761</v>
       </c>
     </row>
     <row r="274">
@@ -4270,13 +4270,13 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>207.19352</v>
+        <v>3328.1873</v>
       </c>
       <c r="C274" t="n">
-        <v>4690</v>
+        <v>31128.18731132076</v>
       </c>
       <c r="D274" t="n">
-        <v>4897.19351523819</v>
+        <v>31128.18731132076</v>
       </c>
     </row>
     <row r="275">
@@ -4284,13 +4284,13 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>584.25174</v>
+        <v>1783.786</v>
       </c>
       <c r="C275" t="n">
-        <v>4355</v>
+        <v>30825.78604247595</v>
       </c>
       <c r="D275" t="n">
-        <v>4939.251740741669</v>
+        <v>30825.78604247595</v>
       </c>
     </row>
     <row r="276">
@@ -4298,13 +4298,13 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>636.76388</v>
+        <v>2048.1278</v>
       </c>
       <c r="C276" t="n">
-        <v>4355</v>
+        <v>30552.12776926101</v>
       </c>
       <c r="D276" t="n">
-        <v>4991.763884668139</v>
+        <v>30552.12776926101</v>
       </c>
     </row>
     <row r="277">
@@ -4312,13 +4312,13 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>399.00056</v>
+        <v>1694.6652</v>
       </c>
       <c r="C277" t="n">
-        <v>4704</v>
+        <v>30250.6652141734</v>
       </c>
       <c r="D277" t="n">
-        <v>5103.00055738994</v>
+        <v>30250.6652141734</v>
       </c>
     </row>
     <row r="278">
@@ -4326,13 +4326,13 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>758.38558</v>
+        <v>874.50613</v>
       </c>
       <c r="C278" t="n">
-        <v>4381</v>
+        <v>30029.5061250663</v>
       </c>
       <c r="D278" t="n">
-        <v>5139.385584601339</v>
+        <v>30029.5061250663</v>
       </c>
     </row>
     <row r="279">
@@ -4340,13 +4340,13 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>468.9961</v>
+        <v>1141.2248</v>
       </c>
       <c r="C279" t="n">
-        <v>4718</v>
+        <v>29776.22482572115</v>
       </c>
       <c r="D279" t="n">
-        <v>5186.996100378788</v>
+        <v>29776.22482572115</v>
       </c>
     </row>
     <row r="280">
@@ -4354,13 +4354,13 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>820.30378</v>
+        <v>824.56886</v>
       </c>
       <c r="C280" t="n">
-        <v>4381</v>
+        <v>29470.56886217948</v>
       </c>
       <c r="D280" t="n">
-        <v>5201.303784549818</v>
+        <v>29470.56886217948</v>
       </c>
     </row>
     <row r="281">
@@ -4368,13 +4368,13 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>835.31506</v>
+        <v>445.06141</v>
       </c>
       <c r="C281" t="n">
-        <v>4381</v>
+        <v>29161.0614082532</v>
       </c>
       <c r="D281" t="n">
-        <v>5216.315055988515</v>
+        <v>29161.0614082532</v>
       </c>
     </row>
     <row r="282">
@@ -4382,13 +4382,13 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>517.54576</v>
+        <v>683.43981</v>
       </c>
       <c r="C282" t="n">
-        <v>4718</v>
+        <v>28808.4398076923</v>
       </c>
       <c r="D282" t="n">
-        <v>5235.545762472521</v>
+        <v>28808.4398076923</v>
       </c>
     </row>
     <row r="283">
@@ -4396,13 +4396,13 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>204.41533</v>
+        <v>0</v>
       </c>
       <c r="C283" t="n">
-        <v>5070</v>
+        <v>28413.88797676282</v>
       </c>
       <c r="D283" t="n">
-        <v>5274.415334756887</v>
+        <v>28413.88797676282</v>
       </c>
     </row>
     <row r="284">
@@ -4410,13 +4410,13 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>951.34431</v>
+        <v>0</v>
       </c>
       <c r="C284" t="n">
-        <v>4394</v>
+        <v>27979.83862118336</v>
       </c>
       <c r="D284" t="n">
-        <v>5345.344305689103</v>
+        <v>27979.83862118336</v>
       </c>
     </row>
     <row r="285">
@@ -4424,13 +4424,13 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>394.67422</v>
+        <v>0</v>
       </c>
       <c r="C285" t="n">
-        <v>5085</v>
+        <v>27553.17540665064</v>
       </c>
       <c r="D285" t="n">
-        <v>5479.674223557695</v>
+        <v>27553.17540665064</v>
       </c>
     </row>
     <row r="286">
@@ -4438,13 +4438,13 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>858.0945</v>
+        <v>0</v>
       </c>
       <c r="C286" t="n">
-        <v>4760</v>
+        <v>27146.81168068911</v>
       </c>
       <c r="D286" t="n">
-        <v>5618.094496794874</v>
+        <v>27146.81168068911</v>
       </c>
     </row>
     <row r="287">
@@ -4452,13 +4452,13 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>1293.2611</v>
+        <v>0</v>
       </c>
       <c r="C287" t="n">
-        <v>4433</v>
+        <v>26800.77948317308</v>
       </c>
       <c r="D287" t="n">
-        <v>5726.261127804488</v>
+        <v>26800.77948317308</v>
       </c>
     </row>
     <row r="288">
@@ -4466,13 +4466,13 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>1323.5408</v>
+        <v>0</v>
       </c>
       <c r="C288" t="n">
-        <v>4446</v>
+        <v>26454.84870793269</v>
       </c>
       <c r="D288" t="n">
-        <v>5769.540843802257</v>
+        <v>26454.84870793269</v>
       </c>
     </row>
     <row r="289">
@@ -4480,13 +4480,13 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>1017.686</v>
+        <v>0</v>
       </c>
       <c r="C289" t="n">
-        <v>4788</v>
+        <v>26358.90531923257</v>
       </c>
       <c r="D289" t="n">
-        <v>5805.686035430602</v>
+        <v>26358.90531923257</v>
       </c>
     </row>
     <row r="290">
@@ -4494,13 +4494,13 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>1100.4117</v>
+        <v>0</v>
       </c>
       <c r="C290" t="n">
-        <v>4802</v>
+        <v>25793.58531313932</v>
       </c>
       <c r="D290" t="n">
-        <v>5902.411716097106</v>
+        <v>25793.58531313932</v>
       </c>
     </row>
     <row r="291">
@@ -4508,13 +4508,13 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>1504.5247</v>
+        <v>0</v>
       </c>
       <c r="C291" t="n">
-        <v>4459</v>
+        <v>25503.56123397436</v>
       </c>
       <c r="D291" t="n">
-        <v>5963.524661976208</v>
+        <v>25503.56123397436</v>
       </c>
     </row>
     <row r="292">
@@ -4522,13 +4522,13 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>1573.6035</v>
+        <v>0</v>
       </c>
       <c r="C292" t="n">
-        <v>4472</v>
+        <v>25482.68219732704</v>
       </c>
       <c r="D292" t="n">
-        <v>6045.603510708043</v>
+        <v>25482.68219732704</v>
       </c>
     </row>
     <row r="293">
@@ -4536,13 +4536,13 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>1617.8585</v>
+        <v>0</v>
       </c>
       <c r="C293" t="n">
-        <v>4472</v>
+        <v>25279.15751572328</v>
       </c>
       <c r="D293" t="n">
-        <v>6089.858499965161</v>
+        <v>25279.15751572328</v>
       </c>
     </row>
     <row r="294">
@@ -4550,13 +4550,13 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>1675.9598</v>
+        <v>0</v>
       </c>
       <c r="C294" t="n">
-        <v>4485</v>
+        <v>24996.36806996855</v>
       </c>
       <c r="D294" t="n">
-        <v>6160.959799510796</v>
+        <v>24996.36806996855</v>
       </c>
     </row>
     <row r="295">
@@ -4564,13 +4564,13 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>1439.3113</v>
+        <v>0</v>
       </c>
       <c r="C295" t="n">
-        <v>4844</v>
+        <v>24724.48800511006</v>
       </c>
       <c r="D295" t="n">
-        <v>6283.311283653844</v>
+        <v>24724.48800511006</v>
       </c>
     </row>
     <row r="296">
@@ -4578,13 +4578,13 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>1501.821</v>
+        <v>0</v>
       </c>
       <c r="C296" t="n">
-        <v>4858</v>
+        <v>24432.67797687964</v>
       </c>
       <c r="D296" t="n">
-        <v>6359.821012152435</v>
+        <v>24432.67797687964</v>
       </c>
     </row>
     <row r="297">
@@ -4592,13 +4592,13 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>1592.2709</v>
+        <v>0</v>
       </c>
       <c r="C297" t="n">
-        <v>4872</v>
+        <v>24164.78621462265</v>
       </c>
       <c r="D297" t="n">
-        <v>6464.270917483661</v>
+        <v>24164.78621462265</v>
       </c>
     </row>
     <row r="298">
@@ -4606,13 +4606,13 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>1638.1576</v>
+        <v>0</v>
       </c>
       <c r="C298" t="n">
-        <v>4872</v>
+        <v>23951.03829992139</v>
       </c>
       <c r="D298" t="n">
-        <v>6510.15756862745</v>
+        <v>23951.03829992139</v>
       </c>
     </row>
     <row r="299">
@@ -4620,13 +4620,13 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>1776.8391</v>
+        <v>0</v>
       </c>
       <c r="C299" t="n">
-        <v>4886</v>
+        <v>23750.9338187893</v>
       </c>
       <c r="D299" t="n">
-        <v>6662.839077205884</v>
+        <v>23750.9338187893</v>
       </c>
     </row>
     <row r="300">
@@ -4634,13 +4634,13 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>1934.7507</v>
+        <v>0</v>
       </c>
       <c r="C300" t="n">
-        <v>4914</v>
+        <v>23501.99684013536</v>
       </c>
       <c r="D300" t="n">
-        <v>6848.750745915035</v>
+        <v>23501.99684013536</v>
       </c>
     </row>
     <row r="301">
@@ -4648,13 +4648,13 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>2097.3581</v>
+        <v>0</v>
       </c>
       <c r="C301" t="n">
-        <v>4942</v>
+        <v>23237.64101257861</v>
       </c>
       <c r="D301" t="n">
-        <v>7039.358056781044</v>
+        <v>23237.64101257861</v>
       </c>
     </row>
     <row r="302">
@@ -4662,13 +4662,13 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>2585.1706</v>
+        <v>0</v>
       </c>
       <c r="C302" t="n">
-        <v>4602</v>
+        <v>22947.24004874214</v>
       </c>
       <c r="D302" t="n">
-        <v>7187.170636994949</v>
+        <v>22947.24004874214</v>
       </c>
     </row>
     <row r="303">
@@ -4676,13 +4676,13 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>2301.1513</v>
+        <v>0</v>
       </c>
       <c r="C303" t="n">
-        <v>4956</v>
+        <v>22680.39581171384</v>
       </c>
       <c r="D303" t="n">
-        <v>7257.15131505848</v>
+        <v>22680.39581171384</v>
       </c>
     </row>
     <row r="304">
@@ -4690,13 +4690,13 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>2304.0009</v>
+        <v>0</v>
       </c>
       <c r="C304" t="n">
-        <v>4970</v>
+        <v>22490.92276864575</v>
       </c>
       <c r="D304" t="n">
-        <v>7274.000852532681</v>
+        <v>22490.92276864575</v>
       </c>
     </row>
     <row r="305">
@@ -4704,13 +4704,13 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>1859.6571</v>
+        <v>0</v>
       </c>
       <c r="C305" t="n">
-        <v>5310</v>
+        <v>22280.72032200233</v>
       </c>
       <c r="D305" t="n">
-        <v>7169.657092147438</v>
+        <v>22280.72032200233</v>
       </c>
     </row>
     <row r="306">
@@ -4718,13 +4718,13 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>1546.5342</v>
+        <v>0</v>
       </c>
       <c r="C306" t="n">
-        <v>5664</v>
+        <v>21996.78561079291</v>
       </c>
       <c r="D306" t="n">
-        <v>7210.534220964067</v>
+        <v>21996.78561079291</v>
       </c>
     </row>
     <row r="307">
@@ -4732,13 +4732,13 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>1334.1052</v>
+        <v>0</v>
       </c>
       <c r="C307" t="n">
-        <v>6052</v>
+        <v>21701.53514111635</v>
       </c>
       <c r="D307" t="n">
-        <v>7386.105211357189</v>
+        <v>21701.53514111635</v>
       </c>
     </row>
     <row r="308">
@@ -4746,13 +4746,13 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>1137.3264</v>
+        <v>0</v>
       </c>
       <c r="C308" t="n">
-        <v>6426</v>
+        <v>21391.8916379717</v>
       </c>
       <c r="D308" t="n">
-        <v>7563.32643790064</v>
+        <v>21391.8916379717</v>
       </c>
     </row>
     <row r="309">
@@ -4760,13 +4760,13 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>915.45739</v>
+        <v>0</v>
       </c>
       <c r="C309" t="n">
-        <v>6821</v>
+        <v>21194.26116666667</v>
       </c>
       <c r="D309" t="n">
-        <v>7736.457393210954</v>
+        <v>21194.26116666667</v>
       </c>
     </row>
     <row r="310">
@@ -4774,13 +4774,13 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>654.29651</v>
+        <v>0</v>
       </c>
       <c r="C310" t="n">
-        <v>7200</v>
+        <v>20978.76903891509</v>
       </c>
       <c r="D310" t="n">
-        <v>7854.296507211539</v>
+        <v>20978.76903891509</v>
       </c>
     </row>
     <row r="311">
@@ -4788,13 +4788,13 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>1139.6223</v>
+        <v>0</v>
       </c>
       <c r="C311" t="n">
-        <v>6859</v>
+        <v>20732.06187814465</v>
       </c>
       <c r="D311" t="n">
-        <v>7998.622256114129</v>
+        <v>20732.06187814465</v>
       </c>
     </row>
     <row r="312">
@@ -4802,13 +4802,13 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>1387.9683</v>
+        <v>0</v>
       </c>
       <c r="C312" t="n">
-        <v>6916</v>
+        <v>20440.1428384434</v>
       </c>
       <c r="D312" t="n">
-        <v>8303.968344362744</v>
+        <v>20440.1428384434</v>
       </c>
     </row>
     <row r="313">
@@ -4816,13 +4816,13 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>1588.1475</v>
+        <v>0</v>
       </c>
       <c r="C313" t="n">
-        <v>6954</v>
+        <v>20188.80954048743</v>
       </c>
       <c r="D313" t="n">
-        <v>8542.147453022873</v>
+        <v>20188.80954048743</v>
       </c>
     </row>
     <row r="314">
@@ -4830,13 +4830,13 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>1870.2981</v>
+        <v>659.9404</v>
       </c>
       <c r="C314" t="n">
-        <v>7011</v>
+        <v>19928.94039701257</v>
       </c>
       <c r="D314" t="n">
-        <v>8881.298094771242</v>
+        <v>19928.94039701257</v>
       </c>
     </row>
     <row r="315">
@@ -4844,13 +4844,13 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>0</v>
+        <v>59.398747</v>
       </c>
       <c r="C315" t="n">
-        <v>9105.430764999999</v>
+        <v>19683.39874699207</v>
       </c>
       <c r="D315" t="n">
-        <v>9105.430764744709</v>
+        <v>19683.39874699207</v>
       </c>
     </row>
     <row r="316">
@@ -4858,13 +4858,13 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>0</v>
+        <v>922.06992</v>
       </c>
       <c r="C316" t="n">
-        <v>9336.805350000001</v>
+        <v>19406.06992413522</v>
       </c>
       <c r="D316" t="n">
-        <v>9336.805347756412</v>
+        <v>19406.06992413522</v>
       </c>
     </row>
     <row r="317">
@@ -4872,13 +4872,13 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>0</v>
+        <v>789.1487499999999</v>
       </c>
       <c r="C317" t="n">
-        <v>9481.269431000001</v>
+        <v>19205.14875471698</v>
       </c>
       <c r="D317" t="n">
-        <v>9481.269430520413</v>
+        <v>19205.14875471698</v>
       </c>
     </row>
     <row r="318">
@@ -4886,13 +4886,13 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>0</v>
+        <v>621.55929</v>
       </c>
       <c r="C318" t="n">
-        <v>9581.160180000001</v>
+        <v>18847.55929441824</v>
       </c>
       <c r="D318" t="n">
-        <v>9581.160181667519</v>
+        <v>18847.55929441824</v>
       </c>
     </row>
     <row r="319">
@@ -4900,13 +4900,13 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>0</v>
+        <v>496.16163</v>
       </c>
       <c r="C319" t="n">
-        <v>9650.32411</v>
+        <v>18586.1616343778</v>
       </c>
       <c r="D319" t="n">
-        <v>9650.324109669815</v>
+        <v>18586.1616343778</v>
       </c>
     </row>
     <row r="320">
@@ -4914,13 +4914,13 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>0</v>
+        <v>384.45561</v>
       </c>
       <c r="C320" t="n">
-        <v>9693.996499999999</v>
+        <v>18360.45561477987</v>
       </c>
       <c r="D320" t="n">
-        <v>9693.996498397435</v>
+        <v>18360.45561477987</v>
       </c>
     </row>
     <row r="321">
@@ -4928,13 +4928,13 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>0</v>
+        <v>252.09668</v>
       </c>
       <c r="C321" t="n">
-        <v>9818.35802</v>
+        <v>18152.09668081761</v>
       </c>
       <c r="D321" t="n">
-        <v>9818.358018429486</v>
+        <v>18152.09668081761</v>
       </c>
     </row>
     <row r="322">
@@ -4942,13 +4942,13 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>0</v>
+        <v>600.10903</v>
       </c>
       <c r="C322" t="n">
-        <v>10017.998212</v>
+        <v>17915.10903380503</v>
       </c>
       <c r="D322" t="n">
-        <v>10017.998212111</v>
+        <v>17915.10903380503</v>
       </c>
     </row>
     <row r="323">
@@ -4956,13 +4956,13 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>0</v>
+        <v>479.97828</v>
       </c>
       <c r="C323" t="n">
-        <v>10201.93325</v>
+        <v>17683.97827555031</v>
       </c>
       <c r="D323" t="n">
-        <v>10201.93325157233</v>
+        <v>17683.97827555031</v>
       </c>
     </row>
     <row r="324">
@@ -4970,13 +4970,13 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>0</v>
+        <v>346.64406</v>
       </c>
       <c r="C324" t="n">
-        <v>10326.58466</v>
+        <v>17455.64405542453</v>
       </c>
       <c r="D324" t="n">
-        <v>10326.58465672731</v>
+        <v>17455.64405542453</v>
       </c>
     </row>
     <row r="325">
@@ -4987,10 +4987,10 @@
         <v>0</v>
       </c>
       <c r="C325" t="n">
-        <v>10516.741252</v>
+        <v>17262.51730089775</v>
       </c>
       <c r="D325" t="n">
-        <v>10516.74125157232</v>
+        <v>17262.51730089775</v>
       </c>
     </row>
     <row r="326">
@@ -5001,10 +5001,10 @@
         <v>0</v>
       </c>
       <c r="C326" t="n">
-        <v>10708.43798</v>
+        <v>17076.54844968553</v>
       </c>
       <c r="D326" t="n">
-        <v>10708.43797798742</v>
+        <v>17076.54844968553</v>
       </c>
     </row>
     <row r="327">
@@ -5015,10 +5015,10 @@
         <v>0</v>
       </c>
       <c r="C327" t="n">
-        <v>10835.95922</v>
+        <v>16802.18262853774</v>
       </c>
       <c r="D327" t="n">
-        <v>10835.95921631058</v>
+        <v>16802.18262853774</v>
       </c>
     </row>
     <row r="328">
@@ -5029,10 +5029,10 @@
         <v>0</v>
       </c>
       <c r="C328" t="n">
-        <v>10919.27249</v>
+        <v>16522.27982507862</v>
       </c>
       <c r="D328" t="n">
-        <v>10919.27249095913</v>
+        <v>16522.27982507862</v>
       </c>
     </row>
     <row r="329">
@@ -5043,10 +5043,10 @@
         <v>0</v>
       </c>
       <c r="C329" t="n">
-        <v>11010.849133</v>
+        <v>16252.67726768868</v>
       </c>
       <c r="D329" t="n">
-        <v>11010.84913278566</v>
+        <v>16252.67726768868</v>
       </c>
     </row>
     <row r="330">
@@ -5057,10 +5057,10 @@
         <v>0</v>
       </c>
       <c r="C330" t="n">
-        <v>11149.20922</v>
+        <v>16003.74085062893</v>
       </c>
       <c r="D330" t="n">
-        <v>11149.20922251615</v>
+        <v>16003.74085062893</v>
       </c>
     </row>
     <row r="331">
@@ -5071,10 +5071,10 @@
         <v>0</v>
       </c>
       <c r="C331" t="n">
-        <v>11319.90274</v>
+        <v>15749.19285776647</v>
       </c>
       <c r="D331" t="n">
-        <v>11319.90273643868</v>
+        <v>15749.19285776647</v>
       </c>
     </row>
     <row r="332">
@@ -5085,10 +5085,10 @@
         <v>0</v>
       </c>
       <c r="C332" t="n">
-        <v>11464.5961</v>
+        <v>15488.31647051887</v>
       </c>
       <c r="D332" t="n">
-        <v>11464.59610041245</v>
+        <v>15488.31647051887</v>
       </c>
     </row>
     <row r="333">
@@ -5099,10 +5099,10 @@
         <v>0</v>
       </c>
       <c r="C333" t="n">
-        <v>11610.206477</v>
+        <v>15243.73338286163</v>
       </c>
       <c r="D333" t="n">
-        <v>11610.20647736972</v>
+        <v>15243.73338286163</v>
       </c>
     </row>
     <row r="334">
@@ -5113,10 +5113,10 @@
         <v>0</v>
       </c>
       <c r="C334" t="n">
-        <v>11773.37915</v>
+        <v>15013.88269772013</v>
       </c>
       <c r="D334" t="n">
-        <v>11773.37914806769</v>
+        <v>15013.88269772013</v>
       </c>
     </row>
     <row r="335">
@@ -5127,10 +5127,10 @@
         <v>0</v>
       </c>
       <c r="C335" t="n">
-        <v>11927.5685</v>
+        <v>14784.79413915094</v>
       </c>
       <c r="D335" t="n">
-        <v>11927.56850196541</v>
+        <v>14784.79413915094</v>
       </c>
     </row>
     <row r="336">
@@ -5141,10 +5141,10 @@
         <v>0</v>
       </c>
       <c r="C336" t="n">
-        <v>12148.772075</v>
+        <v>14456.58206446541</v>
       </c>
       <c r="D336" t="n">
-        <v>12148.77207507862</v>
+        <v>14456.58206446541</v>
       </c>
     </row>
     <row r="337">
@@ -5155,10 +5155,10 @@
         <v>0</v>
       </c>
       <c r="C337" t="n">
-        <v>12398.40274</v>
+        <v>14242.61124213836</v>
       </c>
       <c r="D337" t="n">
-        <v>12398.40274410377</v>
+        <v>14242.61124213836</v>
       </c>
     </row>
     <row r="338">
@@ -5169,10 +5169,10 @@
         <v>0</v>
       </c>
       <c r="C338" t="n">
-        <v>12648.00237</v>
+        <v>14044.91307586478</v>
       </c>
       <c r="D338" t="n">
-        <v>12648.00237331536</v>
+        <v>14044.91307586478</v>
       </c>
     </row>
     <row r="339">
@@ -5183,10 +5183,10 @@
         <v>0</v>
       </c>
       <c r="C339" t="n">
-        <v>12905.35296</v>
+        <v>13816.40902083333</v>
       </c>
       <c r="D339" t="n">
-        <v>12905.3529643725</v>
+        <v>13816.40902083333</v>
       </c>
     </row>
     <row r="340">
@@ -5197,10 +5197,10 @@
         <v>0</v>
       </c>
       <c r="C340" t="n">
-        <v>13154.87864</v>
+        <v>13618.05845676101</v>
       </c>
       <c r="D340" t="n">
-        <v>13154.87863929734</v>
+        <v>13618.05845676101</v>
       </c>
     </row>
     <row r="341">
@@ -5211,10 +5211,10 @@
         <v>0</v>
       </c>
       <c r="C341" t="n">
-        <v>13488.31083</v>
+        <v>13359.75821894655</v>
       </c>
       <c r="D341" t="n">
-        <v>13488.31083257235</v>
+        <v>13359.75821894655</v>
       </c>
     </row>
     <row r="342">
@@ -5225,10 +5225,10 @@
         <v>0</v>
       </c>
       <c r="C342" t="n">
-        <v>13761.76418</v>
+        <v>13187.20544850629</v>
       </c>
       <c r="D342" t="n">
-        <v>13761.76417927405</v>
+        <v>13187.20544850629</v>
       </c>
     </row>
     <row r="343">
@@ -5239,10 +5239,10 @@
         <v>0</v>
       </c>
       <c r="C343" t="n">
-        <v>13884.87774</v>
+        <v>13029.7863114233</v>
       </c>
       <c r="D343" t="n">
-        <v>13884.87773903996</v>
+        <v>13029.7863114233</v>
       </c>
     </row>
     <row r="344">
@@ -5253,10 +5253,10 @@
         <v>0</v>
       </c>
       <c r="C344" t="n">
-        <v>14177.624</v>
+        <v>12816.49660997744</v>
       </c>
       <c r="D344" t="n">
-        <v>14177.62399803459</v>
+        <v>12816.49660997744</v>
       </c>
     </row>
     <row r="345">
@@ -5267,10 +5267,10 @@
         <v>0</v>
       </c>
       <c r="C345" t="n">
-        <v>14464.33861</v>
+        <v>12634.53444409363</v>
       </c>
       <c r="D345" t="n">
-        <v>14464.33861354209</v>
+        <v>12634.53444409363</v>
       </c>
     </row>
     <row r="346">
@@ -5281,10 +5281,10 @@
         <v>0</v>
       </c>
       <c r="C346" t="n">
-        <v>14703.282527</v>
+        <v>12382.73597995283</v>
       </c>
       <c r="D346" t="n">
-        <v>14703.28252672955</v>
+        <v>12382.73597995283</v>
       </c>
     </row>
     <row r="347">
@@ -5295,10 +5295,10 @@
         <v>0</v>
       </c>
       <c r="C347" t="n">
-        <v>14841.59287</v>
+        <v>12171.42622366352</v>
       </c>
       <c r="D347" t="n">
-        <v>14841.5928663522</v>
+        <v>12171.42622366352</v>
       </c>
     </row>
     <row r="348">
@@ -5309,10 +5309,10 @@
         <v>0</v>
       </c>
       <c r="C348" t="n">
-        <v>15004.08203</v>
+        <v>12007.72746540881</v>
       </c>
       <c r="D348" t="n">
-        <v>15004.08202608557</v>
+        <v>12007.72746540881</v>
       </c>
     </row>
     <row r="349">
@@ -5323,10 +5323,10 @@
         <v>0</v>
       </c>
       <c r="C349" t="n">
-        <v>15223.72424</v>
+        <v>11798.59317774132</v>
       </c>
       <c r="D349" t="n">
-        <v>15223.72424124499</v>
+        <v>11798.59317774132</v>
       </c>
     </row>
     <row r="350">
@@ -5337,10 +5337,10 @@
         <v>0</v>
       </c>
       <c r="C350" t="n">
-        <v>15433.376421</v>
+        <v>11391.70586778846</v>
       </c>
       <c r="D350" t="n">
-        <v>15433.37642076595</v>
+        <v>11391.70586778846</v>
       </c>
     </row>
     <row r="351">
@@ -5351,10 +5351,10 @@
         <v>0</v>
       </c>
       <c r="C351" t="n">
-        <v>15787.45235</v>
+        <v>11210.63841746795</v>
       </c>
       <c r="D351" t="n">
-        <v>15787.4523470912</v>
+        <v>11210.63841746795</v>
       </c>
     </row>
     <row r="352">
@@ -5365,10 +5365,10 @@
         <v>0</v>
       </c>
       <c r="C352" t="n">
-        <v>16154.322131</v>
+        <v>11101.34149679487</v>
       </c>
       <c r="D352" t="n">
-        <v>16154.32213085485</v>
+        <v>11101.34149679487</v>
       </c>
     </row>
     <row r="353">
@@ -5379,10 +5379,10 @@
         <v>0</v>
       </c>
       <c r="C353" t="n">
-        <v>16456.07516</v>
+        <v>10985.67071434295</v>
       </c>
       <c r="D353" t="n">
-        <v>16456.07516234276</v>
+        <v>10985.67071434295</v>
       </c>
     </row>
     <row r="354">
@@ -5393,10 +5393,10 @@
         <v>0</v>
       </c>
       <c r="C354" t="n">
-        <v>16703.31397</v>
+        <v>10958.90303326901</v>
       </c>
       <c r="D354" t="n">
-        <v>16703.31396769894</v>
+        <v>10958.90303326901</v>
       </c>
     </row>
     <row r="355">
@@ -5407,10 +5407,10 @@
         <v>0</v>
       </c>
       <c r="C355" t="n">
-        <v>16922.599689</v>
+        <v>10768.82746187107</v>
       </c>
       <c r="D355" t="n">
-        <v>16922.59968876469</v>
+        <v>10768.82746187107</v>
       </c>
     </row>
     <row r="356">
@@ -5421,10 +5421,10 @@
         <v>0</v>
       </c>
       <c r="C356" t="n">
-        <v>17284.19493</v>
+        <v>10536.09367688679</v>
       </c>
       <c r="D356" t="n">
-        <v>17284.19493389423</v>
+        <v>10536.09367688679</v>
       </c>
     </row>
     <row r="357">
@@ -5435,10 +5435,10 @@
         <v>0</v>
       </c>
       <c r="C357" t="n">
-        <v>17632.10096154</v>
+        <v>10320.07039540607</v>
       </c>
       <c r="D357" t="n">
-        <v>17632.10096153846</v>
+        <v>10320.07039540607</v>
       </c>
     </row>
     <row r="358">
@@ -5449,10 +5449,10 @@
         <v>0</v>
       </c>
       <c r="C358" t="n">
-        <v>17933.19063</v>
+        <v>10064.68495794025</v>
       </c>
       <c r="D358" t="n">
-        <v>17933.19063301282</v>
+        <v>10064.68495794025</v>
       </c>
     </row>
     <row r="359">
@@ -5463,10 +5463,10 @@
         <v>0</v>
       </c>
       <c r="C359" t="n">
-        <v>18058.46302</v>
+        <v>9917.296273191823</v>
       </c>
       <c r="D359" t="n">
-        <v>18058.46301813792</v>
+        <v>9917.296273191823</v>
       </c>
     </row>
     <row r="360">
@@ -5477,10 +5477,10 @@
         <v>0</v>
       </c>
       <c r="C360" t="n">
-        <v>18212.57347</v>
+        <v>9788.946051100625</v>
       </c>
       <c r="D360" t="n">
-        <v>18212.57346501572</v>
+        <v>9788.946051100625</v>
       </c>
     </row>
     <row r="361">
@@ -5491,10 +5491,10 @@
         <v>0</v>
       </c>
       <c r="C361" t="n">
-        <v>18306.82464</v>
+        <v>9624.253906053456</v>
       </c>
       <c r="D361" t="n">
-        <v>18306.82464426101</v>
+        <v>9624.253906053456</v>
       </c>
     </row>
     <row r="362">
@@ -5505,10 +5505,10 @@
         <v>0</v>
       </c>
       <c r="C362" t="n">
-        <v>18489.99887</v>
+        <v>9415.000284591193</v>
       </c>
       <c r="D362" t="n">
-        <v>18489.99887185535</v>
+        <v>9415.000284591193</v>
       </c>
     </row>
     <row r="363">
@@ -5519,10 +5519,10 @@
         <v>0</v>
       </c>
       <c r="C363" t="n">
-        <v>18784.552511</v>
+        <v>9214.386738600631</v>
       </c>
       <c r="D363" t="n">
-        <v>18784.5525112526</v>
+        <v>9214.386738600631</v>
       </c>
     </row>
     <row r="364">
@@ -5533,10 +5533,10 @@
         <v>0</v>
       </c>
       <c r="C364" t="n">
-        <v>18977.09753</v>
+        <v>9015.176786163525</v>
       </c>
       <c r="D364" t="n">
-        <v>18977.09752652337</v>
+        <v>9015.176786163525</v>
       </c>
     </row>
     <row r="365">
@@ -5547,10 +5547,10 @@
         <v>0</v>
       </c>
       <c r="C365" t="n">
-        <v>19400.74161</v>
+        <v>8847.177458519531</v>
       </c>
       <c r="D365" t="n">
-        <v>19400.74161023109</v>
+        <v>8847.177458519531</v>
       </c>
     </row>
     <row r="366">
@@ -5561,10 +5561,10 @@
         <v>0</v>
       </c>
       <c r="C366" t="n">
-        <v>19793.288614</v>
+        <v>8685.668196147801</v>
       </c>
       <c r="D366" t="n">
-        <v>19793.2886138486</v>
+        <v>8685.668196147801</v>
       </c>
     </row>
   </sheetData>
@@ -5608,10 +5608,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>294.1441834738937</v>
+        <v>214.5843340935089</v>
       </c>
       <c r="C2" t="n">
-        <v>1.005938744615063e-07</v>
+        <v>295.899252392521</v>
       </c>
     </row>
     <row r="3">
@@ -5619,10 +5619,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1824.004557687647</v>
+        <v>193.8191998541928</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>604.1375051567381</v>
       </c>
     </row>
     <row r="4">
@@ -5630,10 +5630,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4834.369974623624</v>
+        <v>191.9999996588554</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>2386.200024172043</v>
       </c>
     </row>
     <row r="5">
@@ -5641,10 +5641,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2242.315749212054</v>
+        <v>-1.102342784579669e-06</v>
       </c>
       <c r="C5" t="n">
-        <v>1150.791089669566</v>
+        <v>2298.975499950413</v>
       </c>
     </row>
     <row r="6">
@@ -5652,10 +5652,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>309.4302218716062</v>
+        <v>133.8074545317297</v>
       </c>
       <c r="C6" t="n">
-        <v>301.2531007308301</v>
+        <v>77.3750357226498</v>
       </c>
     </row>
     <row r="7">
@@ -5663,10 +5663,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>39.59747943813494</v>
+        <v>1707.001570367289</v>
       </c>
       <c r="C7" t="n">
-        <v>1190.57824915806</v>
+        <v>1.048120433402475</v>
       </c>
     </row>
     <row r="8">
@@ -5674,10 +5674,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>13.89809146250534</v>
+        <v>1930.930599240828</v>
       </c>
       <c r="C8" t="n">
-        <v>583.3700502874951</v>
+        <v>5.657785903754627</v>
       </c>
     </row>
     <row r="9">
@@ -5685,10 +5685,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>143.9999992507443</v>
+        <v>4497.523551331657</v>
       </c>
       <c r="C9" t="n">
-        <v>3162.922893714256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -5696,10 +5696,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>178.1986017145758</v>
+        <v>2078.511752430985</v>
       </c>
       <c r="C10" t="n">
-        <v>566.3739387585125</v>
+        <v>126.8806997532429</v>
       </c>
     </row>
     <row r="11">
@@ -5707,10 +5707,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>192</v>
+        <v>138.9116660912157</v>
       </c>
       <c r="C11" t="n">
-        <v>2550.257886051324</v>
+        <v>131.3401804636802</v>
       </c>
     </row>
     <row r="12">
@@ -5718,10 +5718,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.338882769237993e-06</v>
+        <v>77.62868194384177</v>
       </c>
       <c r="C12" t="n">
-        <v>769.1336150210835</v>
+        <v>204.2285785686549</v>
       </c>
     </row>
     <row r="13">
@@ -5729,10 +5729,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-2.522517765305834e-07</v>
+        <v>-2.19441419067287e-06</v>
       </c>
       <c r="C13" t="n">
-        <v>6.593251914812668e-07</v>
+        <v>5.982995446257614e-07</v>
       </c>
     </row>
   </sheetData>
@@ -5762,42 +5762,42 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>DM_1</t>
+          <t>Duração da Manutenção 1</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>DM_2</t>
+          <t>Duração da Manutenção 2</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>DM_3</t>
+          <t>Duração da Manutenção 3</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>DM_4</t>
+          <t>Duração da Manutenção 4</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>DM_5</t>
+          <t>Duração da Manutenção 5</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>DM_6</t>
+          <t>Duração da Manutenção 6</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>DM_7</t>
+          <t>Duração da Manutenção 7</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>DM_8</t>
+          <t>Duração da Manutenção 8</t>
         </is>
       </c>
     </row>
